--- a/pandapower/test/shortcircuit/sce_tests/sc_result_comparison/wp_2.5/2_five_bus_radial_grid_ynyn_gen_pf_sc_results_3_bus_resonant.xlsx
+++ b/pandapower/test/shortcircuit/sce_tests/sc_result_comparison/wp_2.5/2_five_bus_radial_grid_ynyn_gen_pf_sc_results_3_bus_resonant.xlsx
@@ -752,22 +752,22 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>1.082012411476414</v>
+        <v>1.082012411476423</v>
       </c>
       <c r="O2">
-        <v>0.9717494206873251</v>
+        <v>0.9717494206872835</v>
       </c>
       <c r="P2">
-        <v>1.056597221450648</v>
+        <v>1.05659722145066</v>
       </c>
       <c r="Q2">
-        <v>26.67016311516075</v>
+        <v>26.67016311515914</v>
       </c>
       <c r="R2">
-        <v>-91.68229557616606</v>
+        <v>-91.68229557616603</v>
       </c>
       <c r="S2">
-        <v>152.6354521266393</v>
+        <v>152.6354521266407</v>
       </c>
     </row>
     <row r="3" spans="1:19">
@@ -811,22 +811,22 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>1.067545155014024</v>
+        <v>1.067545155014032</v>
       </c>
       <c r="O3">
-        <v>0.471132462504526</v>
+        <v>0.4711324625044951</v>
       </c>
       <c r="P3">
-        <v>0.8867526821368237</v>
+        <v>0.8867526821368539</v>
       </c>
       <c r="Q3">
-        <v>11.70358232174649</v>
+        <v>11.70358232174563</v>
       </c>
       <c r="R3">
-        <v>-113.1797985005417</v>
+        <v>-113.1797985005402</v>
       </c>
       <c r="S3">
-        <v>165.8651090976159</v>
+        <v>165.865109097617</v>
       </c>
     </row>
     <row r="4" spans="1:19">
@@ -870,22 +870,22 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>1.004840030213501</v>
+        <v>1.00484003021351</v>
       </c>
       <c r="O4">
-        <v>0.2355662312557487</v>
+        <v>0.2355662312557275</v>
       </c>
       <c r="P4">
-        <v>0.9127115190423142</v>
+        <v>0.912711519042348</v>
       </c>
       <c r="Q4">
-        <v>6.185827764751346</v>
+        <v>6.185827764750813</v>
       </c>
       <c r="R4">
-        <v>-113.1797984957915</v>
+        <v>-113.1797984957872</v>
       </c>
       <c r="S4">
-        <v>173.1869568170009</v>
+        <v>173.1869568170014</v>
       </c>
     </row>
     <row r="5" spans="1:19">
@@ -896,55 +896,55 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>2.99531965632286</v>
+        <v>2.995319656322735</v>
       </c>
       <c r="D5">
-        <v>2.99531965632286</v>
+        <v>2.995319656322735</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>34.58697219773961</v>
+        <v>34.58697219773817</v>
       </c>
       <c r="G5">
-        <v>34.58697219773961</v>
+        <v>34.58697219773817</v>
       </c>
       <c r="H5">
-        <v>7.459610837159097</v>
+        <v>2.5525746794594</v>
       </c>
       <c r="I5">
-        <v>3.814808185419791</v>
+        <v>-1165.614387547064</v>
       </c>
       <c r="J5">
-        <v>1.147731927164048</v>
+        <v>1.147731927224092</v>
       </c>
       <c r="K5">
-        <v>3.488438701404312</v>
+        <v>3.488438701520351</v>
       </c>
       <c r="L5">
-        <v>1.147731927170906</v>
+        <v>1.147731927162328</v>
       </c>
       <c r="M5">
-        <v>3.488438701416174</v>
+        <v>3.488438701431013</v>
       </c>
       <c r="N5">
-        <v>0.9526279648043282</v>
+        <v>0.9526279648043371</v>
       </c>
       <c r="O5">
         <v>0</v>
       </c>
       <c r="P5">
-        <v>0.9526279648061707</v>
+        <v>0.9526279648062062</v>
       </c>
       <c r="Q5">
-        <v>-1.466019184245157E-11</v>
+        <v>-1.481073493371588E-11</v>
       </c>
       <c r="R5">
         <v>0</v>
       </c>
       <c r="S5">
-        <v>-179.9999999999788</v>
+        <v>-179.9999999999789</v>
       </c>
     </row>
     <row r="6" spans="1:19">
@@ -988,22 +988,22 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>1.004840030206317</v>
+        <v>1.004840030206326</v>
       </c>
       <c r="O6">
-        <v>0.235566231259815</v>
+        <v>0.2355662312597938</v>
       </c>
       <c r="P6">
-        <v>0.9127115190507489</v>
+        <v>0.9127115190507828</v>
       </c>
       <c r="Q6">
-        <v>6.185827765114887</v>
+        <v>6.185827765114356</v>
       </c>
       <c r="R6">
-        <v>-113.1797984912247</v>
+        <v>-113.1797984912203</v>
       </c>
       <c r="S6">
-        <v>173.1869568167123</v>
+        <v>173.1869568167128</v>
       </c>
     </row>
   </sheetData>
@@ -1119,22 +1119,22 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>1.097913442505985</v>
+        <v>1.09791344250598</v>
       </c>
       <c r="O2">
-        <v>1.038199430945095</v>
+        <v>1.038199430945069</v>
       </c>
       <c r="P2">
-        <v>1.071688005270969</v>
+        <v>1.071688005270967</v>
       </c>
       <c r="Q2">
-        <v>28.20385326919863</v>
+        <v>28.20385326919798</v>
       </c>
       <c r="R2">
-        <v>-91.64835645787062</v>
+        <v>-91.64835645787045</v>
       </c>
       <c r="S2">
-        <v>151.0415426789638</v>
+        <v>151.0415426789645</v>
       </c>
     </row>
     <row r="3" spans="1:19">
@@ -1178,22 +1178,22 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>1.110691092641168</v>
+        <v>1.110691092641161</v>
       </c>
       <c r="O3">
-        <v>0.8010472659662122</v>
+        <v>0.8010472659661865</v>
       </c>
       <c r="P3">
-        <v>0.9498440590705094</v>
+        <v>0.9498440590705127</v>
       </c>
       <c r="Q3">
-        <v>20.60981428630315</v>
+        <v>20.6098142863026</v>
       </c>
       <c r="R3">
-        <v>-102.5423331070932</v>
+        <v>-102.5423331070928</v>
       </c>
       <c r="S3">
-        <v>155.6939771729496</v>
+        <v>155.6939771729505</v>
       </c>
     </row>
     <row r="4" spans="1:19">
@@ -1237,22 +1237,22 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>1.080543161915971</v>
+        <v>1.080543161915964</v>
       </c>
       <c r="O4">
-        <v>0.6778116409140663</v>
+        <v>0.6778116409140424</v>
       </c>
       <c r="P4">
-        <v>0.936557987624871</v>
+        <v>0.9365579876248766</v>
       </c>
       <c r="Q4">
-        <v>17.79481892925099</v>
+        <v>17.79481892925049</v>
       </c>
       <c r="R4">
-        <v>-102.9968045963019</v>
+        <v>-102.9968045963012</v>
       </c>
       <c r="S4">
-        <v>159.3539935570792</v>
+        <v>159.35399355708</v>
       </c>
     </row>
     <row r="5" spans="1:19">
@@ -1263,55 +1263,55 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>1.568752063862714</v>
+        <v>1.568752063862685</v>
       </c>
       <c r="D5">
-        <v>1.568752063862714</v>
+        <v>1.568752063862685</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>18.11438852725838</v>
+        <v>18.11438852725804</v>
       </c>
       <c r="G5">
-        <v>18.11438852725838</v>
+        <v>18.11438852725804</v>
       </c>
       <c r="H5">
-        <v>7.459610837159097</v>
+        <v>2.5525746794594</v>
       </c>
       <c r="I5">
-        <v>3.814808185419791</v>
+        <v>-1165.614387547064</v>
       </c>
       <c r="J5">
-        <v>1.147731927164048</v>
+        <v>1.147731927224092</v>
       </c>
       <c r="K5">
-        <v>3.488438701404312</v>
+        <v>3.488438701520351</v>
       </c>
       <c r="L5">
-        <v>1.147731927170906</v>
+        <v>1.147731927162328</v>
       </c>
       <c r="M5">
-        <v>3.488438701416174</v>
+        <v>3.488438701431013</v>
       </c>
       <c r="N5">
-        <v>1.053149057115869</v>
+        <v>1.053149057115862</v>
       </c>
       <c r="O5">
-        <v>0.554637611178077</v>
+        <v>0.5546376111780553</v>
       </c>
       <c r="P5">
-        <v>0.9271939290302872</v>
+        <v>0.9271939290302948</v>
       </c>
       <c r="Q5">
-        <v>14.82588342075279</v>
+        <v>14.82588342075234</v>
       </c>
       <c r="R5">
-        <v>-103.653192268985</v>
+        <v>-103.6531922689839</v>
       </c>
       <c r="S5">
-        <v>163.1035456589491</v>
+        <v>163.1035456589499</v>
       </c>
     </row>
     <row r="6" spans="1:19">
@@ -1355,22 +1355,22 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>1.08054316191212</v>
+        <v>1.080543161912113</v>
       </c>
       <c r="O6">
-        <v>0.6778116409156866</v>
+        <v>0.6778116409156628</v>
       </c>
       <c r="P6">
-        <v>0.9365579876298998</v>
+        <v>0.9365579876299054</v>
       </c>
       <c r="Q6">
-        <v>17.79481892942268</v>
+        <v>17.79481892942217</v>
       </c>
       <c r="R6">
-        <v>-102.9968045954625</v>
+        <v>-102.9968045954618</v>
       </c>
       <c r="S6">
-        <v>159.3539935570705</v>
+        <v>159.3539935570714</v>
       </c>
     </row>
   </sheetData>
@@ -1486,22 +1486,22 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>1.097913442505985</v>
+        <v>1.09791344250598</v>
       </c>
       <c r="O2">
-        <v>1.038199430945095</v>
+        <v>1.038199430945069</v>
       </c>
       <c r="P2">
-        <v>1.071688005270969</v>
+        <v>1.071688005270967</v>
       </c>
       <c r="Q2">
-        <v>28.20385326919863</v>
+        <v>28.20385326919798</v>
       </c>
       <c r="R2">
-        <v>-91.64835645787062</v>
+        <v>-91.64835645787045</v>
       </c>
       <c r="S2">
-        <v>151.0415426789638</v>
+        <v>151.0415426789645</v>
       </c>
     </row>
     <row r="3" spans="1:19">
@@ -1545,22 +1545,22 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>1.110691092641168</v>
+        <v>1.110691092641161</v>
       </c>
       <c r="O3">
-        <v>0.8010472659662122</v>
+        <v>0.8010472659661865</v>
       </c>
       <c r="P3">
-        <v>0.9498440590705094</v>
+        <v>0.9498440590705127</v>
       </c>
       <c r="Q3">
-        <v>20.60981428630315</v>
+        <v>20.6098142863026</v>
       </c>
       <c r="R3">
-        <v>-102.5423331070932</v>
+        <v>-102.5423331070928</v>
       </c>
       <c r="S3">
-        <v>155.6939771729496</v>
+        <v>155.6939771729505</v>
       </c>
     </row>
     <row r="4" spans="1:19">
@@ -1604,22 +1604,22 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>1.080543161915971</v>
+        <v>1.080543161915964</v>
       </c>
       <c r="O4">
-        <v>0.6778116409140663</v>
+        <v>0.6778116409140424</v>
       </c>
       <c r="P4">
-        <v>0.936557987624871</v>
+        <v>0.9365579876248766</v>
       </c>
       <c r="Q4">
-        <v>17.79481892925099</v>
+        <v>17.79481892925049</v>
       </c>
       <c r="R4">
-        <v>-102.9968045963019</v>
+        <v>-102.9968045963012</v>
       </c>
       <c r="S4">
-        <v>159.3539935570792</v>
+        <v>159.35399355708</v>
       </c>
     </row>
     <row r="5" spans="1:19">
@@ -1630,55 +1630,55 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>1.568752063862714</v>
+        <v>1.568752063862685</v>
       </c>
       <c r="D5">
-        <v>1.568752063862714</v>
+        <v>1.568752063862685</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>18.11438852725838</v>
+        <v>18.11438852725804</v>
       </c>
       <c r="G5">
-        <v>18.11438852725838</v>
+        <v>18.11438852725804</v>
       </c>
       <c r="H5">
-        <v>7.459610837159097</v>
+        <v>2.5525746794594</v>
       </c>
       <c r="I5">
-        <v>3.814808185419791</v>
+        <v>-1165.614387547064</v>
       </c>
       <c r="J5">
-        <v>1.147731927164048</v>
+        <v>1.147731927224092</v>
       </c>
       <c r="K5">
-        <v>3.488438701404312</v>
+        <v>3.488438701520351</v>
       </c>
       <c r="L5">
-        <v>1.147731927170906</v>
+        <v>1.147731927162328</v>
       </c>
       <c r="M5">
-        <v>3.488438701416174</v>
+        <v>3.488438701431013</v>
       </c>
       <c r="N5">
-        <v>1.053149057115869</v>
+        <v>1.053149057115862</v>
       </c>
       <c r="O5">
-        <v>0.554637611178077</v>
+        <v>0.5546376111780553</v>
       </c>
       <c r="P5">
-        <v>0.9271939290302872</v>
+        <v>0.9271939290302948</v>
       </c>
       <c r="Q5">
-        <v>14.82588342075279</v>
+        <v>14.82588342075234</v>
       </c>
       <c r="R5">
-        <v>-103.653192268985</v>
+        <v>-103.6531922689839</v>
       </c>
       <c r="S5">
-        <v>163.1035456589491</v>
+        <v>163.1035456589499</v>
       </c>
     </row>
     <row r="6" spans="1:19">
@@ -1722,22 +1722,22 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>1.08054316191212</v>
+        <v>1.080543161912113</v>
       </c>
       <c r="O6">
-        <v>0.6778116409156866</v>
+        <v>0.6778116409156628</v>
       </c>
       <c r="P6">
-        <v>0.9365579876298998</v>
+        <v>0.9365579876299054</v>
       </c>
       <c r="Q6">
-        <v>17.79481892942268</v>
+        <v>17.79481892942217</v>
       </c>
       <c r="R6">
-        <v>-102.9968045954625</v>
+        <v>-102.9968045954618</v>
       </c>
       <c r="S6">
-        <v>159.3539935570705</v>
+        <v>159.3539935570714</v>
       </c>
     </row>
   </sheetData>
@@ -1853,22 +1853,22 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>0.9962683121728341</v>
+        <v>0.9962683121728049</v>
       </c>
       <c r="O2">
-        <v>0.8925077601169356</v>
+        <v>0.8925077601168916</v>
       </c>
       <c r="P2">
-        <v>0.951700846433795</v>
+        <v>0.9517008464337882</v>
       </c>
       <c r="Q2">
-        <v>26.56536361475425</v>
+        <v>26.56536361475498</v>
       </c>
       <c r="R2">
-        <v>-93.21942694842284</v>
+        <v>-93.21942694842011</v>
       </c>
       <c r="S2">
-        <v>152.0849854380986</v>
+        <v>152.0849854381011</v>
       </c>
     </row>
     <row r="3" spans="1:19">
@@ -1912,22 +1912,22 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>1.029929217032502</v>
+        <v>1.029929217032468</v>
       </c>
       <c r="O3">
-        <v>0.5561090193399916</v>
+        <v>0.5561090193399412</v>
       </c>
       <c r="P3">
-        <v>0.7706324860879302</v>
+        <v>0.7706324860879367</v>
       </c>
       <c r="Q3">
-        <v>13.6587964733778</v>
+        <v>13.65879647337858</v>
       </c>
       <c r="R3">
-        <v>-118.993657238633</v>
+        <v>-118.9936572386296</v>
       </c>
       <c r="S3">
-        <v>161.6033321423728</v>
+        <v>161.6033321423755</v>
       </c>
     </row>
     <row r="4" spans="1:19">
@@ -1971,22 +1971,22 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>0.9413015024173013</v>
+        <v>0.9413015024172687</v>
       </c>
       <c r="O4">
-        <v>0.2780545096809835</v>
+        <v>0.278054509680943</v>
       </c>
       <c r="P4">
-        <v>0.8078419627250766</v>
+        <v>0.8078419627250876</v>
       </c>
       <c r="Q4">
-        <v>7.422585260182339</v>
+        <v>7.422585260183214</v>
       </c>
       <c r="R4">
-        <v>-118.9936572335706</v>
+        <v>-118.9936572335635</v>
       </c>
       <c r="S4">
-        <v>171.3424305981766</v>
+        <v>171.3424305981788</v>
       </c>
     </row>
     <row r="5" spans="1:19">
@@ -1997,55 +1997,55 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>2.397643038417563</v>
+        <v>2.397643038417479</v>
       </c>
       <c r="D5">
-        <v>2.397643038417563</v>
+        <v>2.397643038417479</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>27.68559707302025</v>
+        <v>27.68559707301928</v>
       </c>
       <c r="G5">
-        <v>27.68559707302025</v>
+        <v>27.68559707301928</v>
       </c>
       <c r="H5">
-        <v>14.28977970136569</v>
+        <v>4.892439166931416</v>
       </c>
       <c r="I5">
-        <v>3.820624652650648</v>
+        <v>-1165.601357274737</v>
       </c>
       <c r="J5">
-        <v>2.112151900874846</v>
+        <v>2.112151900918227</v>
       </c>
       <c r="K5">
-        <v>3.596397547129629</v>
+        <v>3.596397547217368</v>
       </c>
       <c r="L5">
-        <v>2.112151900850912</v>
+        <v>2.112151900843126</v>
       </c>
       <c r="M5">
-        <v>3.59639754708828</v>
+        <v>3.596397547101554</v>
       </c>
       <c r="N5">
-        <v>0.8660254037887611</v>
+        <v>0.8660254037887295</v>
       </c>
       <c r="O5">
         <v>0</v>
       </c>
       <c r="P5">
-        <v>0.8660254037891283</v>
+        <v>0.8660254037891421</v>
       </c>
       <c r="Q5">
-        <v>1.933397338886303E-10</v>
+        <v>1.942944554516534E-10</v>
       </c>
       <c r="R5">
         <v>0</v>
       </c>
       <c r="S5">
-        <v>179.9999999997987</v>
+        <v>179.9999999998003</v>
       </c>
     </row>
     <row r="6" spans="1:19">
@@ -2089,22 +2089,22 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>0.9413015024105793</v>
+        <v>0.941301502410547</v>
       </c>
       <c r="O6">
-        <v>0.2780545096894997</v>
+        <v>0.2780545096894592</v>
       </c>
       <c r="P6">
-        <v>0.8078419627343744</v>
+        <v>0.8078419627343857</v>
       </c>
       <c r="Q6">
-        <v>7.422585260806247</v>
+        <v>7.422585260807125</v>
       </c>
       <c r="R6">
-        <v>-118.9936572288337</v>
+        <v>-118.9936572288266</v>
       </c>
       <c r="S6">
-        <v>171.3424305976101</v>
+        <v>171.3424305976123</v>
       </c>
     </row>
   </sheetData>
@@ -2220,22 +2220,22 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>0.9962683121728341</v>
+        <v>0.9962683121728049</v>
       </c>
       <c r="O2">
-        <v>0.8925077601169356</v>
+        <v>0.8925077601168916</v>
       </c>
       <c r="P2">
-        <v>0.951700846433795</v>
+        <v>0.9517008464337882</v>
       </c>
       <c r="Q2">
-        <v>26.56536361475425</v>
+        <v>26.56536361475498</v>
       </c>
       <c r="R2">
-        <v>-93.21942694842284</v>
+        <v>-93.21942694842011</v>
       </c>
       <c r="S2">
-        <v>152.0849854380986</v>
+        <v>152.0849854381011</v>
       </c>
     </row>
     <row r="3" spans="1:19">
@@ -2279,22 +2279,22 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>1.029929217032502</v>
+        <v>1.029929217032468</v>
       </c>
       <c r="O3">
-        <v>0.5561090193399916</v>
+        <v>0.5561090193399412</v>
       </c>
       <c r="P3">
-        <v>0.7706324860879302</v>
+        <v>0.7706324860879367</v>
       </c>
       <c r="Q3">
-        <v>13.6587964733778</v>
+        <v>13.65879647337858</v>
       </c>
       <c r="R3">
-        <v>-118.993657238633</v>
+        <v>-118.9936572386296</v>
       </c>
       <c r="S3">
-        <v>161.6033321423728</v>
+        <v>161.6033321423755</v>
       </c>
     </row>
     <row r="4" spans="1:19">
@@ -2338,22 +2338,22 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>0.9413015024173013</v>
+        <v>0.9413015024172687</v>
       </c>
       <c r="O4">
-        <v>0.2780545096809835</v>
+        <v>0.278054509680943</v>
       </c>
       <c r="P4">
-        <v>0.8078419627250766</v>
+        <v>0.8078419627250876</v>
       </c>
       <c r="Q4">
-        <v>7.422585260182339</v>
+        <v>7.422585260183214</v>
       </c>
       <c r="R4">
-        <v>-118.9936572335706</v>
+        <v>-118.9936572335635</v>
       </c>
       <c r="S4">
-        <v>171.3424305981766</v>
+        <v>171.3424305981788</v>
       </c>
     </row>
     <row r="5" spans="1:19">
@@ -2364,55 +2364,55 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>2.397643038417563</v>
+        <v>2.397643038417479</v>
       </c>
       <c r="D5">
-        <v>2.397643038417563</v>
+        <v>2.397643038417479</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>27.68559707302025</v>
+        <v>27.68559707301928</v>
       </c>
       <c r="G5">
-        <v>27.68559707302025</v>
+        <v>27.68559707301928</v>
       </c>
       <c r="H5">
-        <v>14.28977970136569</v>
+        <v>4.892439166931416</v>
       </c>
       <c r="I5">
-        <v>3.820624652650648</v>
+        <v>-1165.601357274737</v>
       </c>
       <c r="J5">
-        <v>2.112151900874846</v>
+        <v>2.112151900918227</v>
       </c>
       <c r="K5">
-        <v>3.596397547129629</v>
+        <v>3.596397547217368</v>
       </c>
       <c r="L5">
-        <v>2.112151900850912</v>
+        <v>2.112151900843126</v>
       </c>
       <c r="M5">
-        <v>3.59639754708828</v>
+        <v>3.596397547101554</v>
       </c>
       <c r="N5">
-        <v>0.8660254037887611</v>
+        <v>0.8660254037887295</v>
       </c>
       <c r="O5">
         <v>0</v>
       </c>
       <c r="P5">
-        <v>0.8660254037891283</v>
+        <v>0.8660254037891421</v>
       </c>
       <c r="Q5">
-        <v>1.933397338886303E-10</v>
+        <v>1.942944554516534E-10</v>
       </c>
       <c r="R5">
         <v>0</v>
       </c>
       <c r="S5">
-        <v>179.9999999997987</v>
+        <v>179.9999999998003</v>
       </c>
     </row>
     <row r="6" spans="1:19">
@@ -2456,22 +2456,22 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>0.9413015024105793</v>
+        <v>0.941301502410547</v>
       </c>
       <c r="O6">
-        <v>0.2780545096894997</v>
+        <v>0.2780545096894592</v>
       </c>
       <c r="P6">
-        <v>0.8078419627343744</v>
+        <v>0.8078419627343857</v>
       </c>
       <c r="Q6">
-        <v>7.422585260806247</v>
+        <v>7.422585260807125</v>
       </c>
       <c r="R6">
-        <v>-118.9936572288337</v>
+        <v>-118.9936572288266</v>
       </c>
       <c r="S6">
-        <v>171.3424305976101</v>
+        <v>171.3424305976123</v>
       </c>
     </row>
   </sheetData>
@@ -2587,22 +2587,22 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>1.001331894669825</v>
+        <v>1.001331894669809</v>
       </c>
       <c r="O2">
-        <v>0.9447857350273364</v>
+        <v>0.9447857350273114</v>
       </c>
       <c r="P2">
-        <v>0.9714136499339262</v>
+        <v>0.9714136499339229</v>
       </c>
       <c r="Q2">
-        <v>28.12895287789161</v>
+        <v>28.12895287789204</v>
       </c>
       <c r="R2">
-        <v>-92.06695043634009</v>
+        <v>-92.06695043633852</v>
       </c>
       <c r="S2">
-        <v>150.9234419840479</v>
+        <v>150.9234419840493</v>
       </c>
     </row>
     <row r="3" spans="1:19">
@@ -2646,22 +2646,22 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>1.024295523193719</v>
+        <v>1.024295523193701</v>
       </c>
       <c r="O3">
-        <v>0.7601105130307678</v>
+        <v>0.760110513030741</v>
       </c>
       <c r="P3">
-        <v>0.8600596939664567</v>
+        <v>0.860059693966457</v>
       </c>
       <c r="Q3">
-        <v>21.13973208229469</v>
+        <v>21.13973208229513</v>
       </c>
       <c r="R3">
-        <v>-103.5956248909722</v>
+        <v>-103.5956248909704</v>
       </c>
       <c r="S3">
-        <v>154.5634239344227</v>
+        <v>154.5634239344243</v>
       </c>
     </row>
     <row r="4" spans="1:19">
@@ -2705,22 +2705,22 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>0.9736886975942207</v>
+        <v>0.9736886975942026</v>
       </c>
       <c r="O4">
-        <v>0.6105905023675668</v>
+        <v>0.6105905023675439</v>
       </c>
       <c r="P4">
-        <v>0.8592675374866851</v>
+        <v>0.8592675374866876</v>
       </c>
       <c r="Q4">
-        <v>17.89765854075592</v>
+        <v>17.8976585407564</v>
       </c>
       <c r="R4">
-        <v>-101.4382340426272</v>
+        <v>-101.4382340426247</v>
       </c>
       <c r="S4">
-        <v>159.6202630074795</v>
+        <v>159.6202630074809</v>
       </c>
     </row>
     <row r="5" spans="1:19">
@@ -2731,55 +2731,55 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>1.30813419217512</v>
+        <v>1.308134192175094</v>
       </c>
       <c r="D5">
-        <v>1.30813419217512</v>
+        <v>1.308134192175094</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>15.10503255976918</v>
+        <v>15.10503255976889</v>
       </c>
       <c r="G5">
-        <v>15.10503255976918</v>
+        <v>15.10503255976889</v>
       </c>
       <c r="H5">
-        <v>14.28977970136569</v>
+        <v>4.892439166931416</v>
       </c>
       <c r="I5">
-        <v>3.820624652650648</v>
+        <v>-1165.601357274737</v>
       </c>
       <c r="J5">
-        <v>2.112151900874846</v>
+        <v>2.112151900918227</v>
       </c>
       <c r="K5">
-        <v>3.596397547129629</v>
+        <v>3.596397547217368</v>
       </c>
       <c r="L5">
-        <v>2.112151900850912</v>
+        <v>2.112151900843126</v>
       </c>
       <c r="M5">
-        <v>3.59639754708828</v>
+        <v>3.596397547101554</v>
       </c>
       <c r="N5">
-        <v>0.9265339329004406</v>
+        <v>0.9265339329004229</v>
       </c>
       <c r="O5">
-        <v>0.4624952789982432</v>
+        <v>0.4624952789982247</v>
       </c>
       <c r="P5">
-        <v>0.8651507456751668</v>
+        <v>0.8651507456751716</v>
       </c>
       <c r="Q5">
-        <v>14.31307774380566</v>
+        <v>14.31307774380617</v>
       </c>
       <c r="R5">
-        <v>-97.8911368212769</v>
+        <v>-97.89113682127359</v>
       </c>
       <c r="S5">
-        <v>164.6472678684481</v>
+        <v>164.6472678684494</v>
       </c>
     </row>
     <row r="6" spans="1:19">
@@ -2823,22 +2823,22 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>0.9736886975909311</v>
+        <v>0.9736886975909133</v>
       </c>
       <c r="O6">
-        <v>0.6105905023744955</v>
+        <v>0.6105905023744724</v>
       </c>
       <c r="P6">
-        <v>0.8592675374928744</v>
+        <v>0.8592675374928772</v>
       </c>
       <c r="Q6">
-        <v>17.89765854109854</v>
+        <v>17.89765854109903</v>
       </c>
       <c r="R6">
-        <v>-101.4382340415536</v>
+        <v>-101.4382340415512</v>
       </c>
       <c r="S6">
-        <v>159.6202630073105</v>
+        <v>159.620263007312</v>
       </c>
     </row>
   </sheetData>
@@ -2954,22 +2954,22 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>1.001331894669825</v>
+        <v>1.001331894669809</v>
       </c>
       <c r="O2">
-        <v>0.9447857350273364</v>
+        <v>0.9447857350273114</v>
       </c>
       <c r="P2">
-        <v>0.9714136499339262</v>
+        <v>0.9714136499339229</v>
       </c>
       <c r="Q2">
-        <v>28.12895287789161</v>
+        <v>28.12895287789204</v>
       </c>
       <c r="R2">
-        <v>-92.06695043634009</v>
+        <v>-92.06695043633852</v>
       </c>
       <c r="S2">
-        <v>150.9234419840479</v>
+        <v>150.9234419840493</v>
       </c>
     </row>
     <row r="3" spans="1:19">
@@ -3013,22 +3013,22 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>1.024295523193719</v>
+        <v>1.024295523193701</v>
       </c>
       <c r="O3">
-        <v>0.7601105130307678</v>
+        <v>0.760110513030741</v>
       </c>
       <c r="P3">
-        <v>0.8600596939664567</v>
+        <v>0.860059693966457</v>
       </c>
       <c r="Q3">
-        <v>21.13973208229469</v>
+        <v>21.13973208229513</v>
       </c>
       <c r="R3">
-        <v>-103.5956248909722</v>
+        <v>-103.5956248909704</v>
       </c>
       <c r="S3">
-        <v>154.5634239344227</v>
+        <v>154.5634239344243</v>
       </c>
     </row>
     <row r="4" spans="1:19">
@@ -3072,22 +3072,22 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>0.9736886975942207</v>
+        <v>0.9736886975942026</v>
       </c>
       <c r="O4">
-        <v>0.6105905023675668</v>
+        <v>0.6105905023675439</v>
       </c>
       <c r="P4">
-        <v>0.8592675374866851</v>
+        <v>0.8592675374866876</v>
       </c>
       <c r="Q4">
-        <v>17.89765854075592</v>
+        <v>17.8976585407564</v>
       </c>
       <c r="R4">
-        <v>-101.4382340426272</v>
+        <v>-101.4382340426247</v>
       </c>
       <c r="S4">
-        <v>159.6202630074795</v>
+        <v>159.6202630074809</v>
       </c>
     </row>
     <row r="5" spans="1:19">
@@ -3098,55 +3098,55 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>1.30813419217512</v>
+        <v>1.308134192175094</v>
       </c>
       <c r="D5">
-        <v>1.30813419217512</v>
+        <v>1.308134192175094</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>15.10503255976918</v>
+        <v>15.10503255976889</v>
       </c>
       <c r="G5">
-        <v>15.10503255976918</v>
+        <v>15.10503255976889</v>
       </c>
       <c r="H5">
-        <v>14.28977970136569</v>
+        <v>4.892439166931416</v>
       </c>
       <c r="I5">
-        <v>3.820624652650648</v>
+        <v>-1165.601357274737</v>
       </c>
       <c r="J5">
-        <v>2.112151900874846</v>
+        <v>2.112151900918227</v>
       </c>
       <c r="K5">
-        <v>3.596397547129629</v>
+        <v>3.596397547217368</v>
       </c>
       <c r="L5">
-        <v>2.112151900850912</v>
+        <v>2.112151900843126</v>
       </c>
       <c r="M5">
-        <v>3.59639754708828</v>
+        <v>3.596397547101554</v>
       </c>
       <c r="N5">
-        <v>0.9265339329004406</v>
+        <v>0.9265339329004229</v>
       </c>
       <c r="O5">
-        <v>0.4624952789982432</v>
+        <v>0.4624952789982247</v>
       </c>
       <c r="P5">
-        <v>0.8651507456751668</v>
+        <v>0.8651507456751716</v>
       </c>
       <c r="Q5">
-        <v>14.31307774380566</v>
+        <v>14.31307774380617</v>
       </c>
       <c r="R5">
-        <v>-97.8911368212769</v>
+        <v>-97.89113682127359</v>
       </c>
       <c r="S5">
-        <v>164.6472678684481</v>
+        <v>164.6472678684494</v>
       </c>
     </row>
     <row r="6" spans="1:19">
@@ -3190,22 +3190,22 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>0.9736886975909311</v>
+        <v>0.9736886975909133</v>
       </c>
       <c r="O6">
-        <v>0.6105905023744955</v>
+        <v>0.6105905023744724</v>
       </c>
       <c r="P6">
-        <v>0.8592675374928744</v>
+        <v>0.8592675374928772</v>
       </c>
       <c r="Q6">
-        <v>17.89765854109854</v>
+        <v>17.89765854109903</v>
       </c>
       <c r="R6">
-        <v>-101.4382340415536</v>
+        <v>-101.4382340415512</v>
       </c>
       <c r="S6">
-        <v>159.6202630073105</v>
+        <v>159.620263007312</v>
       </c>
     </row>
   </sheetData>
@@ -3324,22 +3324,22 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>1.042752140657601</v>
+        <v>1.100585819694626</v>
       </c>
       <c r="O2">
-        <v>1.100000023846155</v>
+        <v>1.100000023841843</v>
       </c>
       <c r="P2">
-        <v>1.078224189649158</v>
+        <v>1.100660782565662</v>
       </c>
       <c r="Q2">
-        <v>29.64697503704348</v>
+        <v>29.97788670977956</v>
       </c>
       <c r="R2">
-        <v>-89.99999999999642</v>
+        <v>-89.99999999999636</v>
       </c>
       <c r="S2">
-        <v>147.1927287715722</v>
+        <v>150.0153490547337</v>
       </c>
       <c r="T2">
         <v>0</v>
@@ -3386,22 +3386,22 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>0.8029684412139737</v>
+        <v>1.103192156142869</v>
       </c>
       <c r="O3">
-        <v>1.100000023847146</v>
+        <v>1.100000023841819</v>
       </c>
       <c r="P3">
-        <v>1.033325148877381</v>
+        <v>1.103384614430874</v>
       </c>
       <c r="Q3">
-        <v>26.45562724400621</v>
+        <v>29.89276388582057</v>
       </c>
       <c r="R3">
-        <v>-89.99999999999655</v>
+        <v>-89.99999999999795</v>
       </c>
       <c r="S3">
-        <v>134.0827928742164</v>
+        <v>150.0898558013081</v>
       </c>
       <c r="T3">
         <v>0</v>
@@ -3448,22 +3448,22 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>0.7115907999093487</v>
+        <v>1.103602667414277</v>
       </c>
       <c r="O4">
-        <v>1.100000023847146</v>
+        <v>1.100000023841819</v>
       </c>
       <c r="P4">
-        <v>0.9655115652224864</v>
+        <v>1.104650897605087</v>
       </c>
       <c r="Q4">
-        <v>30.05914233664405</v>
+        <v>29.82908444068774</v>
       </c>
       <c r="R4">
-        <v>-89.99999999999636</v>
+        <v>-89.99999999999795</v>
       </c>
       <c r="S4">
-        <v>129.634503260826</v>
+        <v>150.0762293531945</v>
       </c>
       <c r="T4">
         <v>0</v>
@@ -3474,7 +3474,7 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>2.619406804235624</v>
+        <v>0.03288758105158155</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -3483,7 +3483,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>30.2463044708515</v>
+        <v>0.3797530754625249</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -3492,43 +3492,43 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>7.459610837159164</v>
+        <v>2.552574679461004</v>
       </c>
       <c r="I5">
-        <v>3.814808185419612</v>
+        <v>-1165.614387547064</v>
       </c>
       <c r="J5">
-        <v>1.147731927075921</v>
+        <v>1.147731926945439</v>
       </c>
       <c r="K5">
-        <v>3.488438701416141</v>
+        <v>3.488438701410068</v>
       </c>
       <c r="L5">
-        <v>1.147731927171181</v>
+        <v>1.147731927188445</v>
       </c>
       <c r="M5">
-        <v>3.488438701416123</v>
+        <v>3.48843870141573</v>
       </c>
       <c r="N5">
-        <v>0.6238454628223883</v>
+        <v>1.104014540891341</v>
       </c>
       <c r="O5">
-        <v>1.100000023847146</v>
+        <v>1.100000023841819</v>
       </c>
       <c r="P5">
-        <v>0.9043687566081283</v>
+        <v>1.105917243116891</v>
       </c>
       <c r="Q5">
-        <v>34.69933806084445</v>
+        <v>29.76545243064332</v>
       </c>
       <c r="R5">
-        <v>-89.99999999999619</v>
+        <v>-89.99999999999795</v>
       </c>
       <c r="S5">
-        <v>124.5503549504857</v>
+        <v>150.0626341106212</v>
       </c>
       <c r="T5">
-        <v>2.619406804235624</v>
+        <v>0.03288758105158154</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -3572,22 +3572,22 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>0.7115907999149212</v>
+        <v>1.103602667414172</v>
       </c>
       <c r="O6">
-        <v>1.100000023847146</v>
+        <v>1.100000023841819</v>
       </c>
       <c r="P6">
-        <v>0.9655115652172152</v>
+        <v>1.104650897605044</v>
       </c>
       <c r="Q6">
-        <v>30.05914233715016</v>
+        <v>29.82908444068714</v>
       </c>
       <c r="R6">
-        <v>-89.99999999999638</v>
+        <v>-89.99999999999795</v>
       </c>
       <c r="S6">
-        <v>129.6345032612141</v>
+        <v>150.0762293531895</v>
       </c>
       <c r="T6">
         <v>0</v>
@@ -3709,22 +3709,22 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>1.042752140657601</v>
+        <v>1.100585819694626</v>
       </c>
       <c r="O2">
-        <v>1.100000023846155</v>
+        <v>1.100000023841843</v>
       </c>
       <c r="P2">
-        <v>1.078224189649158</v>
+        <v>1.100660782565662</v>
       </c>
       <c r="Q2">
-        <v>29.64697503704348</v>
+        <v>29.97788670977956</v>
       </c>
       <c r="R2">
-        <v>-89.99999999999642</v>
+        <v>-89.99999999999636</v>
       </c>
       <c r="S2">
-        <v>147.1927287715722</v>
+        <v>150.0153490547337</v>
       </c>
       <c r="T2">
         <v>0</v>
@@ -3771,22 +3771,22 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>0.8029684412139737</v>
+        <v>1.103192156142869</v>
       </c>
       <c r="O3">
-        <v>1.100000023847146</v>
+        <v>1.100000023841819</v>
       </c>
       <c r="P3">
-        <v>1.033325148877381</v>
+        <v>1.103384614430874</v>
       </c>
       <c r="Q3">
-        <v>26.45562724400621</v>
+        <v>29.89276388582057</v>
       </c>
       <c r="R3">
-        <v>-89.99999999999655</v>
+        <v>-89.99999999999795</v>
       </c>
       <c r="S3">
-        <v>134.0827928742164</v>
+        <v>150.0898558013081</v>
       </c>
       <c r="T3">
         <v>0</v>
@@ -3833,22 +3833,22 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>0.7115907999093487</v>
+        <v>1.103602667414277</v>
       </c>
       <c r="O4">
-        <v>1.100000023847146</v>
+        <v>1.100000023841819</v>
       </c>
       <c r="P4">
-        <v>0.9655115652224864</v>
+        <v>1.104650897605087</v>
       </c>
       <c r="Q4">
-        <v>30.05914233664405</v>
+        <v>29.82908444068774</v>
       </c>
       <c r="R4">
-        <v>-89.99999999999636</v>
+        <v>-89.99999999999795</v>
       </c>
       <c r="S4">
-        <v>129.634503260826</v>
+        <v>150.0762293531945</v>
       </c>
       <c r="T4">
         <v>0</v>
@@ -3859,7 +3859,7 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>2.619406804235624</v>
+        <v>0.03288758105158155</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -3868,7 +3868,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>30.2463044708515</v>
+        <v>0.3797530754625249</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -3877,43 +3877,43 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>7.459610837159164</v>
+        <v>2.552574679461004</v>
       </c>
       <c r="I5">
-        <v>3.814808185419612</v>
+        <v>-1165.614387547064</v>
       </c>
       <c r="J5">
-        <v>1.147731927075921</v>
+        <v>1.147731926945439</v>
       </c>
       <c r="K5">
-        <v>3.488438701416141</v>
+        <v>3.488438701410068</v>
       </c>
       <c r="L5">
-        <v>1.147731927171181</v>
+        <v>1.147731927188445</v>
       </c>
       <c r="M5">
-        <v>3.488438701416123</v>
+        <v>3.48843870141573</v>
       </c>
       <c r="N5">
-        <v>0.6238454628223883</v>
+        <v>1.104014540891341</v>
       </c>
       <c r="O5">
-        <v>1.100000023847146</v>
+        <v>1.100000023841819</v>
       </c>
       <c r="P5">
-        <v>0.9043687566081283</v>
+        <v>1.105917243116891</v>
       </c>
       <c r="Q5">
-        <v>34.69933806084445</v>
+        <v>29.76545243064332</v>
       </c>
       <c r="R5">
-        <v>-89.99999999999619</v>
+        <v>-89.99999999999795</v>
       </c>
       <c r="S5">
-        <v>124.5503549504857</v>
+        <v>150.0626341106212</v>
       </c>
       <c r="T5">
-        <v>2.619406804235624</v>
+        <v>0.03288758105158154</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -3957,22 +3957,22 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>0.7115907999149212</v>
+        <v>1.103602667414172</v>
       </c>
       <c r="O6">
-        <v>1.100000023847146</v>
+        <v>1.100000023841819</v>
       </c>
       <c r="P6">
-        <v>0.9655115652172152</v>
+        <v>1.104650897605044</v>
       </c>
       <c r="Q6">
-        <v>30.05914233715016</v>
+        <v>29.82908444068714</v>
       </c>
       <c r="R6">
-        <v>-89.99999999999638</v>
+        <v>-89.99999999999795</v>
       </c>
       <c r="S6">
-        <v>129.6345032612141</v>
+        <v>150.0762293531895</v>
       </c>
       <c r="T6">
         <v>0</v>
@@ -4094,22 +4094,22 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>1.076790243753289</v>
+        <v>1.100587705254934</v>
       </c>
       <c r="O2">
-        <v>1.100000023843597</v>
+        <v>1.100000023841843</v>
       </c>
       <c r="P2">
-        <v>1.091476039140943</v>
+        <v>1.100673227592115</v>
       </c>
       <c r="Q2">
-        <v>29.8238763575934</v>
+        <v>29.97719507814195</v>
       </c>
       <c r="R2">
-        <v>-89.99999999999638</v>
+        <v>-89.99999999999636</v>
       </c>
       <c r="S2">
-        <v>148.8576762431136</v>
+        <v>150.01508784174</v>
       </c>
       <c r="T2">
         <v>0</v>
@@ -4156,22 +4156,22 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>0.9794545151269606</v>
+        <v>1.103205848783998</v>
       </c>
       <c r="O3">
-        <v>1.100000023844069</v>
+        <v>1.100000023841822</v>
       </c>
       <c r="P3">
-        <v>1.066601905048378</v>
+        <v>1.103451253298764</v>
       </c>
       <c r="Q3">
-        <v>28.60625012691211</v>
+        <v>29.88917335587023</v>
       </c>
       <c r="R3">
-        <v>-89.99999999999643</v>
+        <v>-89.99999999999797</v>
       </c>
       <c r="S3">
-        <v>143.7261949216634</v>
+        <v>150.0886646543467</v>
       </c>
       <c r="T3">
         <v>0</v>
@@ -4218,22 +4218,22 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>0.9420198976084074</v>
+        <v>1.103605380622007</v>
       </c>
       <c r="O4">
-        <v>1.100000023844069</v>
+        <v>1.100000023841822</v>
       </c>
       <c r="P4">
-        <v>1.034226933798078</v>
+        <v>1.104730357888453</v>
       </c>
       <c r="Q4">
-        <v>29.73074809831841</v>
+        <v>29.82439105730124</v>
       </c>
       <c r="R4">
-        <v>-89.99999999999636</v>
+        <v>-89.99999999999797</v>
       </c>
       <c r="S4">
-        <v>142.2739976643412</v>
+        <v>150.0739889531191</v>
       </c>
       <c r="T4">
         <v>0</v>
@@ -4244,7 +4244,7 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>1.065893177151218</v>
+        <v>0.03331421090531649</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -4253,7 +4253,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>12.30787425511283</v>
+        <v>0.3846793726804889</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -4262,43 +4262,43 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>7.459610837159164</v>
+        <v>2.552574679461004</v>
       </c>
       <c r="I5">
-        <v>3.814808185419612</v>
+        <v>-1165.614387547064</v>
       </c>
       <c r="J5">
-        <v>1.147731927075921</v>
+        <v>1.147731926945439</v>
       </c>
       <c r="K5">
-        <v>3.488438701416141</v>
+        <v>3.488438701410068</v>
       </c>
       <c r="L5">
-        <v>1.147731927171181</v>
+        <v>1.147731927188445</v>
       </c>
       <c r="M5">
-        <v>3.488438701416123</v>
+        <v>3.48843870141573</v>
       </c>
       <c r="N5">
-        <v>0.9049780685278244</v>
+        <v>1.10400632228935</v>
       </c>
       <c r="O5">
-        <v>1.100000023844069</v>
+        <v>1.100000023841822</v>
       </c>
       <c r="P5">
-        <v>1.002559002796032</v>
+        <v>1.10600953478901</v>
       </c>
       <c r="Q5">
-        <v>30.94780160751774</v>
+        <v>29.75965572996409</v>
       </c>
       <c r="R5">
-        <v>-89.99999999999629</v>
+        <v>-89.99999999999797</v>
       </c>
       <c r="S5">
-        <v>140.7290130523957</v>
+        <v>150.0593471978798</v>
       </c>
       <c r="T5">
-        <v>1.065893177151218</v>
+        <v>0.03331421090531649</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -4342,22 +4342,22 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>0.9420198976105825</v>
+        <v>1.1036053806219</v>
       </c>
       <c r="O6">
-        <v>1.100000023844069</v>
+        <v>1.100000023841822</v>
       </c>
       <c r="P6">
-        <v>1.034226933796476</v>
+        <v>1.104730357888408</v>
       </c>
       <c r="Q6">
-        <v>29.7307480984788</v>
+        <v>29.82439105730072</v>
       </c>
       <c r="R6">
-        <v>-89.99999999999636</v>
+        <v>-89.99999999999797</v>
       </c>
       <c r="S6">
-        <v>142.2739976645085</v>
+        <v>150.0739889531141</v>
       </c>
       <c r="T6">
         <v>0</v>
@@ -4630,22 +4630,22 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>1.076790243753289</v>
+        <v>1.100587705254934</v>
       </c>
       <c r="O2">
-        <v>1.100000023843597</v>
+        <v>1.100000023841843</v>
       </c>
       <c r="P2">
-        <v>1.091476039140943</v>
+        <v>1.100673227592115</v>
       </c>
       <c r="Q2">
-        <v>29.8238763575934</v>
+        <v>29.97719507814195</v>
       </c>
       <c r="R2">
-        <v>-89.99999999999638</v>
+        <v>-89.99999999999636</v>
       </c>
       <c r="S2">
-        <v>148.8576762431136</v>
+        <v>150.01508784174</v>
       </c>
       <c r="T2">
         <v>0</v>
@@ -4692,22 +4692,22 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>0.9794545151269606</v>
+        <v>1.103205848783998</v>
       </c>
       <c r="O3">
-        <v>1.100000023844069</v>
+        <v>1.100000023841822</v>
       </c>
       <c r="P3">
-        <v>1.066601905048378</v>
+        <v>1.103451253298764</v>
       </c>
       <c r="Q3">
-        <v>28.60625012691211</v>
+        <v>29.88917335587023</v>
       </c>
       <c r="R3">
-        <v>-89.99999999999643</v>
+        <v>-89.99999999999797</v>
       </c>
       <c r="S3">
-        <v>143.7261949216634</v>
+        <v>150.0886646543467</v>
       </c>
       <c r="T3">
         <v>0</v>
@@ -4754,22 +4754,22 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>0.9420198976084074</v>
+        <v>1.103605380622007</v>
       </c>
       <c r="O4">
-        <v>1.100000023844069</v>
+        <v>1.100000023841822</v>
       </c>
       <c r="P4">
-        <v>1.034226933798078</v>
+        <v>1.104730357888453</v>
       </c>
       <c r="Q4">
-        <v>29.73074809831841</v>
+        <v>29.82439105730124</v>
       </c>
       <c r="R4">
-        <v>-89.99999999999636</v>
+        <v>-89.99999999999797</v>
       </c>
       <c r="S4">
-        <v>142.2739976643412</v>
+        <v>150.0739889531191</v>
       </c>
       <c r="T4">
         <v>0</v>
@@ -4780,7 +4780,7 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>1.065893177151218</v>
+        <v>0.03331421090531649</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -4789,7 +4789,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>12.30787425511283</v>
+        <v>0.3846793726804889</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -4798,43 +4798,43 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>7.459610837159164</v>
+        <v>2.552574679461004</v>
       </c>
       <c r="I5">
-        <v>3.814808185419612</v>
+        <v>-1165.614387547064</v>
       </c>
       <c r="J5">
-        <v>1.147731927075921</v>
+        <v>1.147731926945439</v>
       </c>
       <c r="K5">
-        <v>3.488438701416141</v>
+        <v>3.488438701410068</v>
       </c>
       <c r="L5">
-        <v>1.147731927171181</v>
+        <v>1.147731927188445</v>
       </c>
       <c r="M5">
-        <v>3.488438701416123</v>
+        <v>3.48843870141573</v>
       </c>
       <c r="N5">
-        <v>0.9049780685278244</v>
+        <v>1.10400632228935</v>
       </c>
       <c r="O5">
-        <v>1.100000023844069</v>
+        <v>1.100000023841822</v>
       </c>
       <c r="P5">
-        <v>1.002559002796032</v>
+        <v>1.10600953478901</v>
       </c>
       <c r="Q5">
-        <v>30.94780160751774</v>
+        <v>29.75965572996409</v>
       </c>
       <c r="R5">
-        <v>-89.99999999999629</v>
+        <v>-89.99999999999797</v>
       </c>
       <c r="S5">
-        <v>140.7290130523957</v>
+        <v>150.0593471978798</v>
       </c>
       <c r="T5">
-        <v>1.065893177151218</v>
+        <v>0.03331421090531649</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -4878,22 +4878,22 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>0.9420198976105825</v>
+        <v>1.1036053806219</v>
       </c>
       <c r="O6">
-        <v>1.100000023844069</v>
+        <v>1.100000023841822</v>
       </c>
       <c r="P6">
-        <v>1.034226933796476</v>
+        <v>1.104730357888408</v>
       </c>
       <c r="Q6">
-        <v>29.7307480984788</v>
+        <v>29.82439105730072</v>
       </c>
       <c r="R6">
-        <v>-89.99999999999636</v>
+        <v>-89.99999999999797</v>
       </c>
       <c r="S6">
-        <v>142.2739976645085</v>
+        <v>150.0739889531141</v>
       </c>
       <c r="T6">
         <v>0</v>
@@ -5015,22 +5015,22 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>0.963278680116856</v>
+        <v>1.000603657983034</v>
       </c>
       <c r="O2">
-        <v>0.9999999999974445</v>
+        <v>0.9999999999999983</v>
       </c>
       <c r="P2">
-        <v>0.9962797823049798</v>
+        <v>1.000683844750345</v>
       </c>
       <c r="Q2">
-        <v>29.0448556640787</v>
+        <v>29.97474108904657</v>
       </c>
       <c r="R2">
-        <v>-89.99999999999642</v>
+        <v>-89.99999999999636</v>
       </c>
       <c r="S2">
-        <v>147.7020851835259</v>
+        <v>150.0172995344437</v>
       </c>
       <c r="T2">
         <v>0</v>
@@ -5077,22 +5077,22 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>0.8305135052318227</v>
+        <v>1.003029081124533</v>
       </c>
       <c r="O3">
-        <v>1.000000000000132</v>
+        <v>0.9999999999999661</v>
       </c>
       <c r="P3">
-        <v>1.007084381909887</v>
+        <v>1.003229350403814</v>
       </c>
       <c r="Q3">
-        <v>23.99747698783746</v>
+        <v>29.88691473044737</v>
       </c>
       <c r="R3">
-        <v>-89.9999999999966</v>
+        <v>-89.99999999999798</v>
       </c>
       <c r="S3">
-        <v>138.8848388123291</v>
+        <v>150.0931900830493</v>
       </c>
       <c r="T3">
         <v>0</v>
@@ -5139,22 +5139,22 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>0.7464171130478928</v>
+        <v>1.003037932006203</v>
       </c>
       <c r="O4">
-        <v>1.000000000000131</v>
+        <v>0.9999999999999661</v>
       </c>
       <c r="P4">
-        <v>0.938649918386236</v>
+        <v>1.004731903122218</v>
       </c>
       <c r="Q4">
-        <v>26.92861559270122</v>
+        <v>29.7878697606081</v>
       </c>
       <c r="R4">
-        <v>-89.99999999999636</v>
+        <v>-89.99999999999797</v>
       </c>
       <c r="S4">
-        <v>135.1520008017452</v>
+        <v>150.0438054840905</v>
       </c>
       <c r="T4">
         <v>0</v>
@@ -5165,7 +5165,7 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>1.608053223289021</v>
+        <v>0.02990304503751417</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -5174,7 +5174,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>18.56819922674324</v>
+        <v>0.3452906220399662</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -5183,43 +5183,43 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>14.28977970136582</v>
+        <v>4.892439166930506</v>
       </c>
       <c r="I5">
-        <v>3.820624652650424</v>
+        <v>-1165.601357274742</v>
       </c>
       <c r="J5">
-        <v>2.112151900871218</v>
+        <v>2.112151900772941</v>
       </c>
       <c r="K5">
-        <v>3.596397547088169</v>
+        <v>3.596397547082031</v>
       </c>
       <c r="L5">
-        <v>2.11215190085143</v>
+        <v>2.112151900866999</v>
       </c>
       <c r="M5">
-        <v>3.596397547088235</v>
+        <v>3.596397547088626</v>
       </c>
       <c r="N5">
-        <v>0.6647652316317659</v>
+        <v>1.003049780176466</v>
       </c>
       <c r="O5">
-        <v>1.000000000000131</v>
+        <v>0.9999999999999661</v>
       </c>
       <c r="P5">
-        <v>0.874812476233815</v>
+        <v>1.006235200039454</v>
       </c>
       <c r="Q5">
-        <v>30.59148274614509</v>
+        <v>29.68882683466841</v>
       </c>
       <c r="R5">
-        <v>-89.99999999999612</v>
+        <v>-89.99999999999797</v>
       </c>
       <c r="S5">
-        <v>130.8537654848676</v>
+        <v>149.9945684080235</v>
       </c>
       <c r="T5">
-        <v>1.608053223289021</v>
+        <v>0.02990304503751417</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -5263,22 +5263,22 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>0.7464171130539464</v>
+        <v>1.00303793200606</v>
       </c>
       <c r="O6">
-        <v>1.000000000000131</v>
+        <v>0.9999999999999661</v>
       </c>
       <c r="P6">
-        <v>0.9386499183828459</v>
+        <v>1.0047319031221</v>
       </c>
       <c r="Q6">
-        <v>26.92861559312818</v>
+        <v>29.78786976061108</v>
       </c>
       <c r="R6">
-        <v>-89.99999999999636</v>
+        <v>-89.99999999999797</v>
       </c>
       <c r="S6">
-        <v>135.1520008022024</v>
+        <v>150.0438054840849</v>
       </c>
       <c r="T6">
         <v>0</v>
@@ -5400,22 +5400,22 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>0.963278680116856</v>
+        <v>1.000603657983034</v>
       </c>
       <c r="O2">
-        <v>0.9999999999974445</v>
+        <v>0.9999999999999983</v>
       </c>
       <c r="P2">
-        <v>0.9962797823049798</v>
+        <v>1.000683844750345</v>
       </c>
       <c r="Q2">
-        <v>29.0448556640787</v>
+        <v>29.97474108904657</v>
       </c>
       <c r="R2">
-        <v>-89.99999999999642</v>
+        <v>-89.99999999999636</v>
       </c>
       <c r="S2">
-        <v>147.7020851835259</v>
+        <v>150.0172995344437</v>
       </c>
       <c r="T2">
         <v>0</v>
@@ -5462,22 +5462,22 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>0.8305135052318227</v>
+        <v>1.003029081124533</v>
       </c>
       <c r="O3">
-        <v>1.000000000000132</v>
+        <v>0.9999999999999661</v>
       </c>
       <c r="P3">
-        <v>1.007084381909887</v>
+        <v>1.003229350403814</v>
       </c>
       <c r="Q3">
-        <v>23.99747698783746</v>
+        <v>29.88691473044737</v>
       </c>
       <c r="R3">
-        <v>-89.9999999999966</v>
+        <v>-89.99999999999798</v>
       </c>
       <c r="S3">
-        <v>138.8848388123291</v>
+        <v>150.0931900830493</v>
       </c>
       <c r="T3">
         <v>0</v>
@@ -5524,22 +5524,22 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>0.7464171130478928</v>
+        <v>1.003037932006203</v>
       </c>
       <c r="O4">
-        <v>1.000000000000131</v>
+        <v>0.9999999999999661</v>
       </c>
       <c r="P4">
-        <v>0.938649918386236</v>
+        <v>1.004731903122218</v>
       </c>
       <c r="Q4">
-        <v>26.92861559270122</v>
+        <v>29.7878697606081</v>
       </c>
       <c r="R4">
-        <v>-89.99999999999636</v>
+        <v>-89.99999999999797</v>
       </c>
       <c r="S4">
-        <v>135.1520008017452</v>
+        <v>150.0438054840905</v>
       </c>
       <c r="T4">
         <v>0</v>
@@ -5550,7 +5550,7 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>1.608053223289021</v>
+        <v>0.02990304503751417</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -5559,7 +5559,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>18.56819922674324</v>
+        <v>0.3452906220399662</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -5568,43 +5568,43 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>14.28977970136582</v>
+        <v>4.892439166930506</v>
       </c>
       <c r="I5">
-        <v>3.820624652650424</v>
+        <v>-1165.601357274742</v>
       </c>
       <c r="J5">
-        <v>2.112151900871218</v>
+        <v>2.112151900772941</v>
       </c>
       <c r="K5">
-        <v>3.596397547088169</v>
+        <v>3.596397547082031</v>
       </c>
       <c r="L5">
-        <v>2.11215190085143</v>
+        <v>2.112151900866999</v>
       </c>
       <c r="M5">
-        <v>3.596397547088235</v>
+        <v>3.596397547088626</v>
       </c>
       <c r="N5">
-        <v>0.6647652316317659</v>
+        <v>1.003049780176466</v>
       </c>
       <c r="O5">
-        <v>1.000000000000131</v>
+        <v>0.9999999999999661</v>
       </c>
       <c r="P5">
-        <v>0.874812476233815</v>
+        <v>1.006235200039454</v>
       </c>
       <c r="Q5">
-        <v>30.59148274614509</v>
+        <v>29.68882683466841</v>
       </c>
       <c r="R5">
-        <v>-89.99999999999612</v>
+        <v>-89.99999999999797</v>
       </c>
       <c r="S5">
-        <v>130.8537654848676</v>
+        <v>149.9945684080235</v>
       </c>
       <c r="T5">
-        <v>1.608053223289021</v>
+        <v>0.02990304503751417</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -5648,22 +5648,22 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>0.7464171130539464</v>
+        <v>1.00303793200606</v>
       </c>
       <c r="O6">
-        <v>1.000000000000131</v>
+        <v>0.9999999999999661</v>
       </c>
       <c r="P6">
-        <v>0.9386499183828459</v>
+        <v>1.0047319031221</v>
       </c>
       <c r="Q6">
-        <v>26.92861559312818</v>
+        <v>29.78786976061108</v>
       </c>
       <c r="R6">
-        <v>-89.99999999999636</v>
+        <v>-89.99999999999797</v>
       </c>
       <c r="S6">
-        <v>135.1520008022024</v>
+        <v>150.0438054840849</v>
       </c>
       <c r="T6">
         <v>0</v>
@@ -5785,22 +5785,22 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>0.980441739531454</v>
+        <v>1.000605505298495</v>
       </c>
       <c r="O2">
-        <v>0.9999999999988103</v>
+        <v>0.9999999999999977</v>
       </c>
       <c r="P2">
-        <v>0.9954225029958448</v>
+        <v>1.000696666075814</v>
       </c>
       <c r="Q2">
-        <v>29.66177143848753</v>
+        <v>29.97395416067894</v>
       </c>
       <c r="R2">
-        <v>-89.99999999999639</v>
+        <v>-89.99999999999636</v>
       </c>
       <c r="S2">
-        <v>148.8575687084429</v>
+        <v>150.0169971553065</v>
       </c>
       <c r="T2">
         <v>0</v>
@@ -5847,22 +5847,22 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>0.9074671127295005</v>
+        <v>1.003041563565257</v>
       </c>
       <c r="O3">
-        <v>1.000000000000193</v>
+        <v>0.9999999999999669</v>
       </c>
       <c r="P3">
-        <v>0.9867032317138013</v>
+        <v>1.00329259793601</v>
       </c>
       <c r="Q3">
-        <v>27.92327329655665</v>
+        <v>29.88314931757844</v>
       </c>
       <c r="R3">
-        <v>-89.99999999999646</v>
+        <v>-89.99999999999798</v>
       </c>
       <c r="S3">
-        <v>144.3527992608576</v>
+        <v>150.0919120698359</v>
       </c>
       <c r="T3">
         <v>0</v>
@@ -5909,22 +5909,22 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>0.8691877338538855</v>
+        <v>1.003027447097123</v>
       </c>
       <c r="O4">
-        <v>1.000000000000193</v>
+        <v>0.9999999999999669</v>
       </c>
       <c r="P4">
-        <v>0.9453276193361234</v>
+        <v>1.004802885118497</v>
       </c>
       <c r="Q4">
-        <v>29.72086433952185</v>
+        <v>29.78282624844469</v>
       </c>
       <c r="R4">
-        <v>-89.99999999999635</v>
+        <v>-89.999999999998</v>
       </c>
       <c r="S4">
-        <v>142.9873909537447</v>
+        <v>150.0407521116895</v>
       </c>
       <c r="T4">
         <v>0</v>
@@ -5935,7 +5935,7 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0.8165211222977979</v>
+        <v>0.03028953470284123</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -5944,7 +5944,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>9.42837379515298</v>
+        <v>0.3497534202862779</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -5953,43 +5953,43 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>14.28977970136582</v>
+        <v>4.892439166930506</v>
       </c>
       <c r="I5">
-        <v>3.820624652650424</v>
+        <v>-1165.601357274742</v>
       </c>
       <c r="J5">
-        <v>2.112151900871218</v>
+        <v>2.112151900772941</v>
       </c>
       <c r="K5">
-        <v>3.596397547088169</v>
+        <v>3.596397547082031</v>
       </c>
       <c r="L5">
-        <v>2.11215190085143</v>
+        <v>2.112151900866999</v>
       </c>
       <c r="M5">
-        <v>3.596397547088235</v>
+        <v>3.596397547088626</v>
       </c>
       <c r="N5">
-        <v>0.8318421429844035</v>
+        <v>1.003016405880643</v>
       </c>
       <c r="O5">
-        <v>1.000000000000193</v>
+        <v>0.9999999999999668</v>
       </c>
       <c r="P5">
-        <v>0.9045377971462237</v>
+        <v>1.006313971013242</v>
       </c>
       <c r="Q5">
-        <v>31.68194032262532</v>
+        <v>29.68250066299618</v>
       </c>
       <c r="R5">
-        <v>-89.99999999999622</v>
+        <v>-89.999999999998</v>
       </c>
       <c r="S5">
-        <v>141.4979263676711</v>
+        <v>149.9897457570672</v>
       </c>
       <c r="T5">
-        <v>0.8165211222977979</v>
+        <v>0.03028953470284123</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -6033,22 +6033,22 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>0.8691877338573977</v>
+        <v>1.003027447096978</v>
       </c>
       <c r="O6">
-        <v>1.000000000000193</v>
+        <v>0.9999999999999668</v>
       </c>
       <c r="P6">
-        <v>0.9453276193354384</v>
+        <v>1.004802885118377</v>
       </c>
       <c r="Q6">
-        <v>29.72086433967057</v>
+        <v>29.78282624844782</v>
       </c>
       <c r="R6">
-        <v>-89.99999999999633</v>
+        <v>-89.99999999999798</v>
       </c>
       <c r="S6">
-        <v>142.9873909539942</v>
+        <v>150.040752111684</v>
       </c>
       <c r="T6">
         <v>0</v>
@@ -6170,22 +6170,22 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>0.980441739531454</v>
+        <v>1.000605505298495</v>
       </c>
       <c r="O2">
-        <v>0.9999999999988103</v>
+        <v>0.9999999999999977</v>
       </c>
       <c r="P2">
-        <v>0.9954225029958448</v>
+        <v>1.000696666075814</v>
       </c>
       <c r="Q2">
-        <v>29.66177143848753</v>
+        <v>29.97395416067894</v>
       </c>
       <c r="R2">
-        <v>-89.99999999999639</v>
+        <v>-89.99999999999636</v>
       </c>
       <c r="S2">
-        <v>148.8575687084429</v>
+        <v>150.0169971553065</v>
       </c>
       <c r="T2">
         <v>0</v>
@@ -6232,22 +6232,22 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>0.9074671127295005</v>
+        <v>1.003041563565257</v>
       </c>
       <c r="O3">
-        <v>1.000000000000193</v>
+        <v>0.9999999999999669</v>
       </c>
       <c r="P3">
-        <v>0.9867032317138013</v>
+        <v>1.00329259793601</v>
       </c>
       <c r="Q3">
-        <v>27.92327329655665</v>
+        <v>29.88314931757844</v>
       </c>
       <c r="R3">
-        <v>-89.99999999999646</v>
+        <v>-89.99999999999798</v>
       </c>
       <c r="S3">
-        <v>144.3527992608576</v>
+        <v>150.0919120698359</v>
       </c>
       <c r="T3">
         <v>0</v>
@@ -6294,22 +6294,22 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>0.8691877338538855</v>
+        <v>1.003027447097123</v>
       </c>
       <c r="O4">
-        <v>1.000000000000193</v>
+        <v>0.9999999999999669</v>
       </c>
       <c r="P4">
-        <v>0.9453276193361234</v>
+        <v>1.004802885118497</v>
       </c>
       <c r="Q4">
-        <v>29.72086433952185</v>
+        <v>29.78282624844469</v>
       </c>
       <c r="R4">
-        <v>-89.99999999999635</v>
+        <v>-89.999999999998</v>
       </c>
       <c r="S4">
-        <v>142.9873909537447</v>
+        <v>150.0407521116895</v>
       </c>
       <c r="T4">
         <v>0</v>
@@ -6320,7 +6320,7 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0.8165211222977979</v>
+        <v>0.03028953470284123</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -6329,7 +6329,7 @@
         <v>0</v>
       </c>
       <c r="E5">
-        <v>9.42837379515298</v>
+        <v>0.3497534202862779</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -6338,43 +6338,43 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>14.28977970136582</v>
+        <v>4.892439166930506</v>
       </c>
       <c r="I5">
-        <v>3.820624652650424</v>
+        <v>-1165.601357274742</v>
       </c>
       <c r="J5">
-        <v>2.112151900871218</v>
+        <v>2.112151900772941</v>
       </c>
       <c r="K5">
-        <v>3.596397547088169</v>
+        <v>3.596397547082031</v>
       </c>
       <c r="L5">
-        <v>2.11215190085143</v>
+        <v>2.112151900866999</v>
       </c>
       <c r="M5">
-        <v>3.596397547088235</v>
+        <v>3.596397547088626</v>
       </c>
       <c r="N5">
-        <v>0.8318421429844035</v>
+        <v>1.003016405880643</v>
       </c>
       <c r="O5">
-        <v>1.000000000000193</v>
+        <v>0.9999999999999668</v>
       </c>
       <c r="P5">
-        <v>0.9045377971462237</v>
+        <v>1.006313971013242</v>
       </c>
       <c r="Q5">
-        <v>31.68194032262532</v>
+        <v>29.68250066299618</v>
       </c>
       <c r="R5">
-        <v>-89.99999999999622</v>
+        <v>-89.999999999998</v>
       </c>
       <c r="S5">
-        <v>141.4979263676711</v>
+        <v>149.9897457570672</v>
       </c>
       <c r="T5">
-        <v>0.8165211222977979</v>
+        <v>0.03028953470284123</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -6418,22 +6418,22 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>0.8691877338573977</v>
+        <v>1.003027447096978</v>
       </c>
       <c r="O6">
-        <v>1.000000000000193</v>
+        <v>0.9999999999999668</v>
       </c>
       <c r="P6">
-        <v>0.9453276193354384</v>
+        <v>1.004802885118377</v>
       </c>
       <c r="Q6">
-        <v>29.72086433967057</v>
+        <v>29.78282624844782</v>
       </c>
       <c r="R6">
-        <v>-89.99999999999633</v>
+        <v>-89.99999999999798</v>
       </c>
       <c r="S6">
-        <v>142.9873909539942</v>
+        <v>150.040752111684</v>
       </c>
       <c r="T6">
         <v>0</v>
@@ -6555,22 +6555,22 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>1.062288750366803</v>
+        <v>1.082164226224464</v>
       </c>
       <c r="O2">
-        <v>0.9717494206874659</v>
+        <v>0.9717494206872689</v>
       </c>
       <c r="P2">
-        <v>1.051968622551812</v>
+        <v>1.056764763182085</v>
       </c>
       <c r="Q2">
-        <v>26.21923026850122</v>
+        <v>26.66503570500252</v>
       </c>
       <c r="R2">
-        <v>-91.68229557615854</v>
+        <v>-91.68229557616579</v>
       </c>
       <c r="S2">
-        <v>151.4970280845286</v>
+        <v>152.6390302926512</v>
       </c>
       <c r="T2">
         <v>0</v>
@@ -6617,22 +6617,22 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>0.9852053364701159</v>
+        <v>1.068460688526204</v>
       </c>
       <c r="O3">
-        <v>0.4711324625059584</v>
+        <v>0.4711324625044626</v>
       </c>
       <c r="P3">
-        <v>0.8486710778381711</v>
+        <v>0.8876800922298617</v>
       </c>
       <c r="Q3">
-        <v>7.405658687192879</v>
+        <v>11.69085887711457</v>
       </c>
       <c r="R3">
-        <v>-113.1797985003927</v>
+        <v>-113.1797985005369</v>
       </c>
       <c r="S3">
-        <v>158.8569784380739</v>
+        <v>165.8770798670748</v>
       </c>
       <c r="T3">
         <v>0</v>
@@ -6679,22 +6679,22 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>0.8934588607184696</v>
+        <v>1.005990664804333</v>
       </c>
       <c r="O4">
-        <v>0.2355662312567087</v>
+        <v>0.2355662312556916</v>
       </c>
       <c r="P4">
-        <v>0.8270270526592395</v>
+        <v>0.9139194967504722</v>
       </c>
       <c r="Q4">
-        <v>0.6081671922693185</v>
+        <v>6.163825642192753</v>
       </c>
       <c r="R4">
-        <v>-113.179798495414</v>
+        <v>-113.1797984957783</v>
       </c>
       <c r="S4">
-        <v>165.5003249957298</v>
+        <v>173.1795833874021</v>
       </c>
       <c r="T4">
         <v>0</v>
@@ -6708,58 +6708,58 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>3.667011208147284</v>
+        <v>2.997908641612537</v>
       </c>
       <c r="D5">
-        <v>2.529552560941496</v>
+        <v>2.992750816757147</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>42.34299816290419</v>
+        <v>34.61686722481807</v>
       </c>
       <c r="G5">
-        <v>29.2087570397776</v>
+        <v>34.55730979344423</v>
       </c>
       <c r="H5">
-        <v>7.459610837159097</v>
+        <v>2.5525746794594</v>
       </c>
       <c r="I5">
-        <v>3.814808185419791</v>
+        <v>-1165.614387547064</v>
       </c>
       <c r="J5">
-        <v>1.147731927164048</v>
+        <v>1.147731927224092</v>
       </c>
       <c r="K5">
-        <v>3.488438701404312</v>
+        <v>3.488438701520351</v>
       </c>
       <c r="L5">
-        <v>1.147731927170906</v>
+        <v>1.147731927162328</v>
       </c>
       <c r="M5">
-        <v>3.488438701416174</v>
+        <v>3.488438701431013</v>
       </c>
       <c r="N5">
-        <v>0.8170022497395296</v>
+        <v>0.9540544541636069</v>
       </c>
       <c r="O5">
         <v>0</v>
       </c>
       <c r="P5">
-        <v>0.8170022497429723</v>
+        <v>0.9540544541655332</v>
       </c>
       <c r="Q5">
-        <v>-7.597588371982582</v>
+        <v>-0.02843852483800884</v>
       </c>
       <c r="R5">
         <v>0</v>
       </c>
       <c r="S5">
-        <v>172.4024116279919</v>
+        <v>179.9715614751844</v>
       </c>
       <c r="T5">
-        <v>1.950244944648277</v>
+        <v>0.01636994492711248</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -6803,22 +6803,22 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>0.8934588607106393</v>
+        <v>1.005990664797123</v>
       </c>
       <c r="O6">
-        <v>0.235566231260775</v>
+        <v>0.235566231259758</v>
       </c>
       <c r="P6">
-        <v>0.8270270526673403</v>
+        <v>0.9139194967588882</v>
       </c>
       <c r="Q6">
-        <v>0.6081671928319526</v>
+        <v>6.163825642554966</v>
       </c>
       <c r="R6">
-        <v>-113.1797984908472</v>
+        <v>-113.1797984912115</v>
       </c>
       <c r="S6">
-        <v>165.5003249957005</v>
+        <v>173.1795833871129</v>
       </c>
       <c r="T6">
         <v>0</v>
@@ -6940,22 +6940,22 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>1.062288750366803</v>
+        <v>1.082164226224464</v>
       </c>
       <c r="O2">
-        <v>0.9717494206874659</v>
+        <v>0.9717494206872689</v>
       </c>
       <c r="P2">
-        <v>1.051968622551812</v>
+        <v>1.056764763182085</v>
       </c>
       <c r="Q2">
-        <v>26.21923026850122</v>
+        <v>26.66503570500252</v>
       </c>
       <c r="R2">
-        <v>-91.68229557615854</v>
+        <v>-91.68229557616579</v>
       </c>
       <c r="S2">
-        <v>151.4970280845286</v>
+        <v>152.6390302926512</v>
       </c>
       <c r="T2">
         <v>0</v>
@@ -7002,22 +7002,22 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>0.9852053364701159</v>
+        <v>1.068460688526204</v>
       </c>
       <c r="O3">
-        <v>0.4711324625059584</v>
+        <v>0.4711324625044626</v>
       </c>
       <c r="P3">
-        <v>0.8486710778381711</v>
+        <v>0.8876800922298617</v>
       </c>
       <c r="Q3">
-        <v>7.405658687192879</v>
+        <v>11.69085887711457</v>
       </c>
       <c r="R3">
-        <v>-113.1797985003927</v>
+        <v>-113.1797985005369</v>
       </c>
       <c r="S3">
-        <v>158.8569784380739</v>
+        <v>165.8770798670748</v>
       </c>
       <c r="T3">
         <v>0</v>
@@ -7064,22 +7064,22 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>0.8934588607184696</v>
+        <v>1.005990664804333</v>
       </c>
       <c r="O4">
-        <v>0.2355662312567087</v>
+        <v>0.2355662312556916</v>
       </c>
       <c r="P4">
-        <v>0.8270270526592395</v>
+        <v>0.9139194967504722</v>
       </c>
       <c r="Q4">
-        <v>0.6081671922693185</v>
+        <v>6.163825642192753</v>
       </c>
       <c r="R4">
-        <v>-113.179798495414</v>
+        <v>-113.1797984957783</v>
       </c>
       <c r="S4">
-        <v>165.5003249957298</v>
+        <v>173.1795833874021</v>
       </c>
       <c r="T4">
         <v>0</v>
@@ -7093,58 +7093,58 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>3.667011208147284</v>
+        <v>2.997908641612537</v>
       </c>
       <c r="D5">
-        <v>2.529552560941496</v>
+        <v>2.992750816757147</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>42.34299816290419</v>
+        <v>34.61686722481807</v>
       </c>
       <c r="G5">
-        <v>29.2087570397776</v>
+        <v>34.55730979344423</v>
       </c>
       <c r="H5">
-        <v>7.459610837159097</v>
+        <v>2.5525746794594</v>
       </c>
       <c r="I5">
-        <v>3.814808185419791</v>
+        <v>-1165.614387547064</v>
       </c>
       <c r="J5">
-        <v>1.147731927164048</v>
+        <v>1.147731927224092</v>
       </c>
       <c r="K5">
-        <v>3.488438701404312</v>
+        <v>3.488438701520351</v>
       </c>
       <c r="L5">
-        <v>1.147731927170906</v>
+        <v>1.147731927162328</v>
       </c>
       <c r="M5">
-        <v>3.488438701416174</v>
+        <v>3.488438701431013</v>
       </c>
       <c r="N5">
-        <v>0.8170022497395296</v>
+        <v>0.9540544541636069</v>
       </c>
       <c r="O5">
         <v>0</v>
       </c>
       <c r="P5">
-        <v>0.8170022497429723</v>
+        <v>0.9540544541655332</v>
       </c>
       <c r="Q5">
-        <v>-7.597588371982582</v>
+        <v>-0.02843852483800884</v>
       </c>
       <c r="R5">
         <v>0</v>
       </c>
       <c r="S5">
-        <v>172.4024116279919</v>
+        <v>179.9715614751844</v>
       </c>
       <c r="T5">
-        <v>1.950244944648277</v>
+        <v>0.01636994492711248</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -7188,22 +7188,22 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>0.8934588607106393</v>
+        <v>1.005990664797123</v>
       </c>
       <c r="O6">
-        <v>0.235566231260775</v>
+        <v>0.235566231259758</v>
       </c>
       <c r="P6">
-        <v>0.8270270526673403</v>
+        <v>0.9139194967588882</v>
       </c>
       <c r="Q6">
-        <v>0.6081671928319526</v>
+        <v>6.163825642554966</v>
       </c>
       <c r="R6">
-        <v>-113.1797984908472</v>
+        <v>-113.1797984912115</v>
       </c>
       <c r="S6">
-        <v>165.5003249957005</v>
+        <v>173.1795833871129</v>
       </c>
       <c r="T6">
         <v>0</v>
@@ -7325,22 +7325,22 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>1.090372963036917</v>
+        <v>1.100472617198911</v>
       </c>
       <c r="O2">
-        <v>1.060344120151018</v>
+        <v>1.06034412015087</v>
       </c>
       <c r="P2">
-        <v>1.077158232480665</v>
+        <v>1.080190484229003</v>
       </c>
       <c r="Q2">
-        <v>28.65314088241008</v>
+        <v>28.79218038285081</v>
       </c>
       <c r="R2">
-        <v>-91.2554141542534</v>
+        <v>-91.25541415425386</v>
       </c>
       <c r="S2">
-        <v>150.0816470280703</v>
+        <v>150.6124849003964</v>
       </c>
       <c r="T2">
         <v>0</v>
@@ -7387,22 +7387,22 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>1.063944888916434</v>
+        <v>1.11430903379009</v>
       </c>
       <c r="O3">
-        <v>0.9069449605560904</v>
+        <v>0.9069449605547266</v>
       </c>
       <c r="P3">
-        <v>0.9797682800012568</v>
+        <v>0.994089149634772</v>
       </c>
       <c r="Q3">
-        <v>22.5917425402771</v>
+        <v>23.73516602100809</v>
       </c>
       <c r="R3">
-        <v>-98.42976487994957</v>
+        <v>-98.42976487996273</v>
       </c>
       <c r="S3">
-        <v>150.0988765609844</v>
+        <v>153.1732676080286</v>
       </c>
       <c r="T3">
         <v>0</v>
@@ -7449,22 +7449,22 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>1.027114588364173</v>
+        <v>1.094902895750522</v>
       </c>
       <c r="O4">
-        <v>0.8245251459002306</v>
+        <v>0.8245251458989454</v>
       </c>
       <c r="P4">
-        <v>0.9486081219127379</v>
+        <v>0.980128269735831</v>
       </c>
       <c r="Q4">
-        <v>20.80981296793612</v>
+        <v>21.83440522525988</v>
       </c>
       <c r="R4">
-        <v>-98.7251578556982</v>
+        <v>-98.72515785571682</v>
       </c>
       <c r="S4">
-        <v>151.6753484259702</v>
+        <v>155.4159080116289</v>
       </c>
       <c r="T4">
         <v>0</v>
@@ -7478,58 +7478,58 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>1.249318774975366</v>
+        <v>1.054447226109986</v>
       </c>
       <c r="D5">
-        <v>1.040654530005689</v>
+        <v>1.044661222770548</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>14.42589062071362</v>
+        <v>12.1757077968171</v>
       </c>
       <c r="G5">
-        <v>12.01644346064376</v>
+        <v>12.06270876357079</v>
       </c>
       <c r="H5">
-        <v>7.459610837159097</v>
+        <v>2.5525746794594</v>
       </c>
       <c r="I5">
-        <v>3.814808185419791</v>
+        <v>-1165.614387547064</v>
       </c>
       <c r="J5">
-        <v>1.147731927164048</v>
+        <v>1.147731927224092</v>
       </c>
       <c r="K5">
-        <v>3.488438701404312</v>
+        <v>3.488438701520351</v>
       </c>
       <c r="L5">
-        <v>1.147731927170906</v>
+        <v>1.147731927162328</v>
       </c>
       <c r="M5">
-        <v>3.488438701416174</v>
+        <v>3.488438701431013</v>
       </c>
       <c r="N5">
-        <v>0.9913509947044795</v>
+        <v>1.076744400202417</v>
       </c>
       <c r="O5">
-        <v>0.7421321146326127</v>
+        <v>0.7421321146314074</v>
       </c>
       <c r="P5">
-        <v>0.9182145255970633</v>
+        <v>0.9677109645755526</v>
       </c>
       <c r="Q5">
-        <v>18.897350790559</v>
+        <v>19.8673065164072</v>
       </c>
       <c r="R5">
-        <v>-99.08615255179106</v>
+        <v>-99.08615255181637</v>
       </c>
       <c r="S5">
-        <v>153.3575306380651</v>
+        <v>157.7197115756275</v>
       </c>
       <c r="T5">
-        <v>0.9388492424783205</v>
+        <v>0.01647548113027543</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -7573,22 +7573,22 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>1.027114588362163</v>
+        <v>1.0949028957479</v>
       </c>
       <c r="O6">
-        <v>0.8245251459012806</v>
+        <v>0.8245251458999951</v>
       </c>
       <c r="P6">
-        <v>0.9486081219154177</v>
+        <v>0.9801282697391595</v>
       </c>
       <c r="Q6">
-        <v>20.80981296812945</v>
+        <v>21.83440522537165</v>
       </c>
       <c r="R6">
-        <v>-98.72515785523616</v>
+        <v>-98.72515785525478</v>
       </c>
       <c r="S6">
-        <v>151.6753484260904</v>
+        <v>155.4159080116512</v>
       </c>
       <c r="T6">
         <v>0</v>
@@ -7710,22 +7710,22 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>1.090372963036917</v>
+        <v>1.100472617198911</v>
       </c>
       <c r="O2">
-        <v>1.060344120151018</v>
+        <v>1.06034412015087</v>
       </c>
       <c r="P2">
-        <v>1.077158232480665</v>
+        <v>1.080190484229003</v>
       </c>
       <c r="Q2">
-        <v>28.65314088241008</v>
+        <v>28.79218038285081</v>
       </c>
       <c r="R2">
-        <v>-91.2554141542534</v>
+        <v>-91.25541415425386</v>
       </c>
       <c r="S2">
-        <v>150.0816470280703</v>
+        <v>150.6124849003964</v>
       </c>
       <c r="T2">
         <v>0</v>
@@ -7772,22 +7772,22 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>1.063944888916434</v>
+        <v>1.11430903379009</v>
       </c>
       <c r="O3">
-        <v>0.9069449605560904</v>
+        <v>0.9069449605547266</v>
       </c>
       <c r="P3">
-        <v>0.9797682800012568</v>
+        <v>0.994089149634772</v>
       </c>
       <c r="Q3">
-        <v>22.5917425402771</v>
+        <v>23.73516602100809</v>
       </c>
       <c r="R3">
-        <v>-98.42976487994957</v>
+        <v>-98.42976487996273</v>
       </c>
       <c r="S3">
-        <v>150.0988765609844</v>
+        <v>153.1732676080286</v>
       </c>
       <c r="T3">
         <v>0</v>
@@ -7834,22 +7834,22 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>1.027114588364173</v>
+        <v>1.094902895750522</v>
       </c>
       <c r="O4">
-        <v>0.8245251459002306</v>
+        <v>0.8245251458989454</v>
       </c>
       <c r="P4">
-        <v>0.9486081219127379</v>
+        <v>0.980128269735831</v>
       </c>
       <c r="Q4">
-        <v>20.80981296793612</v>
+        <v>21.83440522525988</v>
       </c>
       <c r="R4">
-        <v>-98.7251578556982</v>
+        <v>-98.72515785571682</v>
       </c>
       <c r="S4">
-        <v>151.6753484259702</v>
+        <v>155.4159080116289</v>
       </c>
       <c r="T4">
         <v>0</v>
@@ -7863,58 +7863,58 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>1.249318774975366</v>
+        <v>1.054447226109986</v>
       </c>
       <c r="D5">
-        <v>1.040654530005689</v>
+        <v>1.044661222770548</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>14.42589062071362</v>
+        <v>12.1757077968171</v>
       </c>
       <c r="G5">
-        <v>12.01644346064376</v>
+        <v>12.06270876357079</v>
       </c>
       <c r="H5">
-        <v>7.459610837159097</v>
+        <v>2.5525746794594</v>
       </c>
       <c r="I5">
-        <v>3.814808185419791</v>
+        <v>-1165.614387547064</v>
       </c>
       <c r="J5">
-        <v>1.147731927164048</v>
+        <v>1.147731927224092</v>
       </c>
       <c r="K5">
-        <v>3.488438701404312</v>
+        <v>3.488438701520351</v>
       </c>
       <c r="L5">
-        <v>1.147731927170906</v>
+        <v>1.147731927162328</v>
       </c>
       <c r="M5">
-        <v>3.488438701416174</v>
+        <v>3.488438701431013</v>
       </c>
       <c r="N5">
-        <v>0.9913509947044795</v>
+        <v>1.076744400202417</v>
       </c>
       <c r="O5">
-        <v>0.7421321146326127</v>
+        <v>0.7421321146314074</v>
       </c>
       <c r="P5">
-        <v>0.9182145255970633</v>
+        <v>0.9677109645755526</v>
       </c>
       <c r="Q5">
-        <v>18.897350790559</v>
+        <v>19.8673065164072</v>
       </c>
       <c r="R5">
-        <v>-99.08615255179106</v>
+        <v>-99.08615255181637</v>
       </c>
       <c r="S5">
-        <v>153.3575306380651</v>
+        <v>157.7197115756275</v>
       </c>
       <c r="T5">
-        <v>0.9388492424783205</v>
+        <v>0.01647548113027543</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -7958,22 +7958,22 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>1.027114588362163</v>
+        <v>1.0949028957479</v>
       </c>
       <c r="O6">
-        <v>0.8245251459012806</v>
+        <v>0.8245251458999951</v>
       </c>
       <c r="P6">
-        <v>0.9486081219154177</v>
+        <v>0.9801282697391595</v>
       </c>
       <c r="Q6">
-        <v>20.80981296812945</v>
+        <v>21.83440522537165</v>
       </c>
       <c r="R6">
-        <v>-98.72515785523616</v>
+        <v>-98.72515785525478</v>
       </c>
       <c r="S6">
-        <v>151.6753484260904</v>
+        <v>155.4159080116512</v>
       </c>
       <c r="T6">
         <v>0</v>
@@ -8095,22 +8095,22 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>0.9858069461184117</v>
+        <v>0.9964250940431747</v>
       </c>
       <c r="O2">
-        <v>0.8925077601161707</v>
+        <v>0.8925077601168876</v>
       </c>
       <c r="P2">
-        <v>0.9522770631213295</v>
+        <v>0.9518734412966208</v>
       </c>
       <c r="Q2">
-        <v>26.09539601220233</v>
+        <v>26.55960527183873</v>
       </c>
       <c r="R2">
-        <v>-93.21942694842474</v>
+        <v>-93.21942694841961</v>
       </c>
       <c r="S2">
-        <v>151.2883786096764</v>
+        <v>152.0891641414023</v>
       </c>
       <c r="T2">
         <v>0</v>
@@ -8157,22 +8157,22 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>0.993137301748656</v>
+        <v>1.030791429305126</v>
       </c>
       <c r="O3">
-        <v>0.5561090193397075</v>
+        <v>0.5561090193398938</v>
       </c>
       <c r="P3">
-        <v>0.7683254585944327</v>
+        <v>0.771500401828494</v>
       </c>
       <c r="Q3">
-        <v>10.68486962335877</v>
+        <v>13.64443263469224</v>
       </c>
       <c r="R3">
-        <v>-118.993657238637</v>
+        <v>-118.9936572386262</v>
       </c>
       <c r="S3">
-        <v>156.8321718886203</v>
+        <v>161.6210501676167</v>
       </c>
       <c r="T3">
         <v>0</v>
@@ -8219,22 +8219,22 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>0.8801575274663969</v>
+        <v>0.9423544770710447</v>
       </c>
       <c r="O4">
-        <v>0.2780545096810415</v>
+        <v>0.2780545096808967</v>
       </c>
       <c r="P4">
-        <v>0.766511364453474</v>
+        <v>0.8090089500380666</v>
       </c>
       <c r="Q4">
-        <v>3.709677486166922</v>
+        <v>7.388487966304302</v>
       </c>
       <c r="R4">
-        <v>-118.9936572336044</v>
+        <v>-118.9936572335528</v>
       </c>
       <c r="S4">
-        <v>165.9365091984129</v>
+        <v>171.3249194922509</v>
       </c>
       <c r="T4">
         <v>0</v>
@@ -8248,58 +8248,58 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>2.764903772924684</v>
+        <v>2.401452689356556</v>
       </c>
       <c r="D5">
-        <v>2.101035304114945</v>
+        <v>2.393850455707284</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>31.92635875162956</v>
+        <v>27.72958713292317</v>
       </c>
       <c r="G5">
-        <v>24.26066596815341</v>
+        <v>27.64180410004618</v>
       </c>
       <c r="H5">
-        <v>14.28977970136569</v>
+        <v>4.892439166931416</v>
       </c>
       <c r="I5">
-        <v>3.820624652650648</v>
+        <v>-1165.601357274737</v>
       </c>
       <c r="J5">
-        <v>2.112151900874846</v>
+        <v>2.112151900918227</v>
       </c>
       <c r="K5">
-        <v>3.596397547129629</v>
+        <v>3.596397547217368</v>
       </c>
       <c r="L5">
-        <v>2.112151900850912</v>
+        <v>2.112151900843126</v>
       </c>
       <c r="M5">
-        <v>3.59639754708828</v>
+        <v>3.596397547101554</v>
       </c>
       <c r="N5">
-        <v>0.783862030599261</v>
+        <v>0.8673598150958771</v>
       </c>
       <c r="O5">
         <v>0</v>
       </c>
       <c r="P5">
-        <v>0.7838620305997251</v>
+        <v>0.8673598150963799</v>
       </c>
       <c r="Q5">
-        <v>-5.141094698590169</v>
+        <v>-0.05236265221964818</v>
       </c>
       <c r="R5">
         <v>0</v>
       </c>
       <c r="S5">
-        <v>174.8589053009605</v>
+        <v>179.9476373473873</v>
       </c>
       <c r="T5">
-        <v>1.059865975823595</v>
+        <v>0.01488248395231624</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -8343,22 +8343,22 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>0.8801575274596608</v>
+        <v>0.9423544770642787</v>
       </c>
       <c r="O6">
-        <v>0.2780545096895577</v>
+        <v>0.278054509689413</v>
       </c>
       <c r="P6">
-        <v>0.7665113644632844</v>
+        <v>0.8090089500473309</v>
       </c>
       <c r="Q6">
-        <v>3.709677486975884</v>
+        <v>7.388487966927177</v>
       </c>
       <c r="R6">
-        <v>-118.9936572288674</v>
+        <v>-118.9936572288158</v>
       </c>
       <c r="S6">
-        <v>165.936509198086</v>
+        <v>171.3249194916846</v>
       </c>
       <c r="T6">
         <v>0</v>
@@ -8631,22 +8631,22 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>0.9858069461184117</v>
+        <v>0.9964250940431747</v>
       </c>
       <c r="O2">
-        <v>0.8925077601161707</v>
+        <v>0.8925077601168876</v>
       </c>
       <c r="P2">
-        <v>0.9522770631213295</v>
+        <v>0.9518734412966208</v>
       </c>
       <c r="Q2">
-        <v>26.09539601220233</v>
+        <v>26.55960527183873</v>
       </c>
       <c r="R2">
-        <v>-93.21942694842474</v>
+        <v>-93.21942694841961</v>
       </c>
       <c r="S2">
-        <v>151.2883786096764</v>
+        <v>152.0891641414023</v>
       </c>
       <c r="T2">
         <v>0</v>
@@ -8693,22 +8693,22 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>0.993137301748656</v>
+        <v>1.030791429305126</v>
       </c>
       <c r="O3">
-        <v>0.5561090193397075</v>
+        <v>0.5561090193398938</v>
       </c>
       <c r="P3">
-        <v>0.7683254585944327</v>
+        <v>0.771500401828494</v>
       </c>
       <c r="Q3">
-        <v>10.68486962335877</v>
+        <v>13.64443263469224</v>
       </c>
       <c r="R3">
-        <v>-118.993657238637</v>
+        <v>-118.9936572386262</v>
       </c>
       <c r="S3">
-        <v>156.8321718886203</v>
+        <v>161.6210501676167</v>
       </c>
       <c r="T3">
         <v>0</v>
@@ -8755,22 +8755,22 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>0.8801575274663969</v>
+        <v>0.9423544770710447</v>
       </c>
       <c r="O4">
-        <v>0.2780545096810415</v>
+        <v>0.2780545096808967</v>
       </c>
       <c r="P4">
-        <v>0.766511364453474</v>
+        <v>0.8090089500380666</v>
       </c>
       <c r="Q4">
-        <v>3.709677486166922</v>
+        <v>7.388487966304302</v>
       </c>
       <c r="R4">
-        <v>-118.9936572336044</v>
+        <v>-118.9936572335528</v>
       </c>
       <c r="S4">
-        <v>165.9365091984129</v>
+        <v>171.3249194922509</v>
       </c>
       <c r="T4">
         <v>0</v>
@@ -8784,58 +8784,58 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>2.764903772924684</v>
+        <v>2.401452689356556</v>
       </c>
       <c r="D5">
-        <v>2.101035304114945</v>
+        <v>2.393850455707284</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>31.92635875162956</v>
+        <v>27.72958713292317</v>
       </c>
       <c r="G5">
-        <v>24.26066596815341</v>
+        <v>27.64180410004618</v>
       </c>
       <c r="H5">
-        <v>14.28977970136569</v>
+        <v>4.892439166931416</v>
       </c>
       <c r="I5">
-        <v>3.820624652650648</v>
+        <v>-1165.601357274737</v>
       </c>
       <c r="J5">
-        <v>2.112151900874846</v>
+        <v>2.112151900918227</v>
       </c>
       <c r="K5">
-        <v>3.596397547129629</v>
+        <v>3.596397547217368</v>
       </c>
       <c r="L5">
-        <v>2.112151900850912</v>
+        <v>2.112151900843126</v>
       </c>
       <c r="M5">
-        <v>3.59639754708828</v>
+        <v>3.596397547101554</v>
       </c>
       <c r="N5">
-        <v>0.783862030599261</v>
+        <v>0.8673598150958771</v>
       </c>
       <c r="O5">
         <v>0</v>
       </c>
       <c r="P5">
-        <v>0.7838620305997251</v>
+        <v>0.8673598150963799</v>
       </c>
       <c r="Q5">
-        <v>-5.141094698590169</v>
+        <v>-0.05236265221964818</v>
       </c>
       <c r="R5">
         <v>0</v>
       </c>
       <c r="S5">
-        <v>174.8589053009605</v>
+        <v>179.9476373473873</v>
       </c>
       <c r="T5">
-        <v>1.059865975823595</v>
+        <v>0.01488248395231624</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -8879,22 +8879,22 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>0.8801575274596608</v>
+        <v>0.9423544770642787</v>
       </c>
       <c r="O6">
-        <v>0.2780545096895577</v>
+        <v>0.278054509689413</v>
       </c>
       <c r="P6">
-        <v>0.7665113644632844</v>
+        <v>0.8090089500473309</v>
       </c>
       <c r="Q6">
-        <v>3.709677486975884</v>
+        <v>7.388487966927177</v>
       </c>
       <c r="R6">
-        <v>-118.9936572288674</v>
+        <v>-118.9936572288158</v>
       </c>
       <c r="S6">
-        <v>165.936509198086</v>
+        <v>171.3249194916846</v>
       </c>
       <c r="T6">
         <v>0</v>
@@ -9016,22 +9016,22 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>0.9943715491647289</v>
+        <v>1.001923484668679</v>
       </c>
       <c r="O2">
-        <v>0.963124043015693</v>
+        <v>0.9631240430161634</v>
       </c>
       <c r="P2">
-        <v>0.9790819245911913</v>
+        <v>0.9801009764830309</v>
       </c>
       <c r="Q2">
-        <v>28.51590505770909</v>
+        <v>28.71511986242205</v>
       </c>
       <c r="R2">
-        <v>-91.48679392928051</v>
+        <v>-91.48679392927869</v>
       </c>
       <c r="S2">
-        <v>150.0983937560776</v>
+        <v>150.5808448463955</v>
       </c>
       <c r="T2">
         <v>0</v>
@@ -9078,22 +9078,22 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>0.9857429186481399</v>
+        <v>1.019473935189192</v>
       </c>
       <c r="O3">
-        <v>0.8367132283538613</v>
+        <v>0.8367132283541607</v>
       </c>
       <c r="P3">
-        <v>0.8985037664144792</v>
+        <v>0.9021372000205145</v>
       </c>
       <c r="Q3">
-        <v>22.66008656936861</v>
+        <v>23.91130312429089</v>
       </c>
       <c r="R3">
-        <v>-98.94474932053504</v>
+        <v>-98.94474932053009</v>
       </c>
       <c r="S3">
-        <v>150.1827883135488</v>
+        <v>152.7316034757885</v>
       </c>
       <c r="T3">
         <v>0</v>
@@ -9140,22 +9140,22 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>0.9334885186573786</v>
+        <v>0.984328054108543</v>
       </c>
       <c r="O4">
-        <v>0.7348977271735566</v>
+        <v>0.734897727173798</v>
       </c>
       <c r="P4">
-        <v>0.8740459905058058</v>
+        <v>0.897229726496343</v>
       </c>
       <c r="Q4">
-        <v>20.74425085850956</v>
+        <v>21.69955871854446</v>
       </c>
       <c r="R4">
-        <v>-97.41604264394378</v>
+        <v>-97.41604264393368</v>
       </c>
       <c r="S4">
-        <v>152.9041139907525</v>
+        <v>156.0091509930784</v>
       </c>
       <c r="T4">
         <v>0</v>
@@ -9169,58 +9169,58 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>1.057390965834774</v>
+        <v>0.9011495742710549</v>
       </c>
       <c r="D5">
-        <v>0.8394791925479447</v>
+        <v>0.8914682675093377</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>12.2096991752677</v>
+        <v>10.40557898571021</v>
       </c>
       <c r="G5">
-        <v>9.693470755932912</v>
+        <v>10.29378888441051</v>
       </c>
       <c r="H5">
-        <v>14.28977970136569</v>
+        <v>4.892439166931416</v>
       </c>
       <c r="I5">
-        <v>3.820624652650648</v>
+        <v>-1165.601357274737</v>
       </c>
       <c r="J5">
-        <v>2.112151900874846</v>
+        <v>2.112151900918227</v>
       </c>
       <c r="K5">
-        <v>3.596397547129629</v>
+        <v>3.596397547217368</v>
       </c>
       <c r="L5">
-        <v>2.112151900850912</v>
+        <v>2.112151900843126</v>
       </c>
       <c r="M5">
-        <v>3.59639754708828</v>
+        <v>3.596397547101554</v>
       </c>
       <c r="N5">
-        <v>0.8824007261855167</v>
+        <v>0.9507560731938187</v>
       </c>
       <c r="O5">
-        <v>0.633773235077486</v>
+        <v>0.6337732350776742</v>
       </c>
       <c r="P5">
-        <v>0.851670536839801</v>
+        <v>0.8952848219581849</v>
       </c>
       <c r="Q5">
-        <v>18.60394347168452</v>
+        <v>19.32786762920274</v>
       </c>
       <c r="R5">
-        <v>-95.39765209812423</v>
+        <v>-95.3976520981072</v>
       </c>
       <c r="S5">
-        <v>155.7752070444128</v>
+        <v>159.3118120907751</v>
       </c>
       <c r="T5">
-        <v>0.6574601362251308</v>
+        <v>0.01497819718340513</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -9264,22 +9264,22 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>0.9334885186562376</v>
+        <v>0.9843280541063435</v>
       </c>
       <c r="O6">
-        <v>0.7348977271785113</v>
+        <v>0.7348977271787528</v>
       </c>
       <c r="P6">
-        <v>0.8740459905100508</v>
+        <v>0.8972297265007122</v>
       </c>
       <c r="Q6">
-        <v>20.74425085883388</v>
+        <v>21.69955871878008</v>
       </c>
       <c r="R6">
-        <v>-97.41604264334273</v>
+        <v>-97.41604264333264</v>
       </c>
       <c r="S6">
-        <v>152.904113990794</v>
+        <v>156.0091509929956</v>
       </c>
       <c r="T6">
         <v>0</v>
@@ -9401,22 +9401,22 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>0.9943715491647289</v>
+        <v>1.001923484668679</v>
       </c>
       <c r="O2">
-        <v>0.963124043015693</v>
+        <v>0.9631240430161634</v>
       </c>
       <c r="P2">
-        <v>0.9790819245911913</v>
+        <v>0.9801009764830309</v>
       </c>
       <c r="Q2">
-        <v>28.51590505770909</v>
+        <v>28.71511986242205</v>
       </c>
       <c r="R2">
-        <v>-91.48679392928051</v>
+        <v>-91.48679392927869</v>
       </c>
       <c r="S2">
-        <v>150.0983937560776</v>
+        <v>150.5808448463955</v>
       </c>
       <c r="T2">
         <v>0</v>
@@ -9463,22 +9463,22 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>0.9857429186481399</v>
+        <v>1.019473935189192</v>
       </c>
       <c r="O3">
-        <v>0.8367132283538613</v>
+        <v>0.8367132283541607</v>
       </c>
       <c r="P3">
-        <v>0.8985037664144792</v>
+        <v>0.9021372000205145</v>
       </c>
       <c r="Q3">
-        <v>22.66008656936861</v>
+        <v>23.91130312429089</v>
       </c>
       <c r="R3">
-        <v>-98.94474932053504</v>
+        <v>-98.94474932053009</v>
       </c>
       <c r="S3">
-        <v>150.1827883135488</v>
+        <v>152.7316034757885</v>
       </c>
       <c r="T3">
         <v>0</v>
@@ -9525,22 +9525,22 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>0.9334885186573786</v>
+        <v>0.984328054108543</v>
       </c>
       <c r="O4">
-        <v>0.7348977271735566</v>
+        <v>0.734897727173798</v>
       </c>
       <c r="P4">
-        <v>0.8740459905058058</v>
+        <v>0.897229726496343</v>
       </c>
       <c r="Q4">
-        <v>20.74425085850956</v>
+        <v>21.69955871854446</v>
       </c>
       <c r="R4">
-        <v>-97.41604264394378</v>
+        <v>-97.41604264393368</v>
       </c>
       <c r="S4">
-        <v>152.9041139907525</v>
+        <v>156.0091509930784</v>
       </c>
       <c r="T4">
         <v>0</v>
@@ -9554,58 +9554,58 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>1.057390965834774</v>
+        <v>0.9011495742710549</v>
       </c>
       <c r="D5">
-        <v>0.8394791925479447</v>
+        <v>0.8914682675093377</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>12.2096991752677</v>
+        <v>10.40557898571021</v>
       </c>
       <c r="G5">
-        <v>9.693470755932912</v>
+        <v>10.29378888441051</v>
       </c>
       <c r="H5">
-        <v>14.28977970136569</v>
+        <v>4.892439166931416</v>
       </c>
       <c r="I5">
-        <v>3.820624652650648</v>
+        <v>-1165.601357274737</v>
       </c>
       <c r="J5">
-        <v>2.112151900874846</v>
+        <v>2.112151900918227</v>
       </c>
       <c r="K5">
-        <v>3.596397547129629</v>
+        <v>3.596397547217368</v>
       </c>
       <c r="L5">
-        <v>2.112151900850912</v>
+        <v>2.112151900843126</v>
       </c>
       <c r="M5">
-        <v>3.59639754708828</v>
+        <v>3.596397547101554</v>
       </c>
       <c r="N5">
-        <v>0.8824007261855167</v>
+        <v>0.9507560731938187</v>
       </c>
       <c r="O5">
-        <v>0.633773235077486</v>
+        <v>0.6337732350776742</v>
       </c>
       <c r="P5">
-        <v>0.851670536839801</v>
+        <v>0.8952848219581849</v>
       </c>
       <c r="Q5">
-        <v>18.60394347168452</v>
+        <v>19.32786762920274</v>
       </c>
       <c r="R5">
-        <v>-95.39765209812423</v>
+        <v>-95.3976520981072</v>
       </c>
       <c r="S5">
-        <v>155.7752070444128</v>
+        <v>159.3118120907751</v>
       </c>
       <c r="T5">
-        <v>0.6574601362251308</v>
+        <v>0.01497819718340513</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -9649,22 +9649,22 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>0.9334885186562376</v>
+        <v>0.9843280541063435</v>
       </c>
       <c r="O6">
-        <v>0.7348977271785113</v>
+        <v>0.7348977271787528</v>
       </c>
       <c r="P6">
-        <v>0.8740459905100508</v>
+        <v>0.8972297265007122</v>
       </c>
       <c r="Q6">
-        <v>20.74425085883388</v>
+        <v>21.69955871878008</v>
       </c>
       <c r="R6">
-        <v>-97.41604264334273</v>
+        <v>-97.41604264333264</v>
       </c>
       <c r="S6">
-        <v>152.904113990794</v>
+        <v>156.0091509929956</v>
       </c>
       <c r="T6">
         <v>0</v>
@@ -10538,22 +10538,22 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>1.082012411476414</v>
+        <v>1.082012411476423</v>
       </c>
       <c r="O2">
-        <v>0.9717494206873251</v>
+        <v>0.9717494206872835</v>
       </c>
       <c r="P2">
-        <v>1.056597221450648</v>
+        <v>1.05659722145066</v>
       </c>
       <c r="Q2">
-        <v>26.67016311516075</v>
+        <v>26.67016311515914</v>
       </c>
       <c r="R2">
-        <v>-91.68229557616606</v>
+        <v>-91.68229557616603</v>
       </c>
       <c r="S2">
-        <v>152.6354521266393</v>
+        <v>152.6354521266407</v>
       </c>
     </row>
     <row r="3" spans="1:19">
@@ -10597,22 +10597,22 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>1.067545155014024</v>
+        <v>1.067545155014032</v>
       </c>
       <c r="O3">
-        <v>0.471132462504526</v>
+        <v>0.4711324625044951</v>
       </c>
       <c r="P3">
-        <v>0.8867526821368237</v>
+        <v>0.8867526821368539</v>
       </c>
       <c r="Q3">
-        <v>11.70358232174649</v>
+        <v>11.70358232174563</v>
       </c>
       <c r="R3">
-        <v>-113.1797985005417</v>
+        <v>-113.1797985005402</v>
       </c>
       <c r="S3">
-        <v>165.8651090976159</v>
+        <v>165.865109097617</v>
       </c>
     </row>
     <row r="4" spans="1:19">
@@ -10656,22 +10656,22 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>1.004840030213501</v>
+        <v>1.00484003021351</v>
       </c>
       <c r="O4">
-        <v>0.2355662312557487</v>
+        <v>0.2355662312557275</v>
       </c>
       <c r="P4">
-        <v>0.9127115190423142</v>
+        <v>0.912711519042348</v>
       </c>
       <c r="Q4">
-        <v>6.185827764751346</v>
+        <v>6.185827764750813</v>
       </c>
       <c r="R4">
-        <v>-113.1797984957915</v>
+        <v>-113.1797984957872</v>
       </c>
       <c r="S4">
-        <v>173.1869568170009</v>
+        <v>173.1869568170014</v>
       </c>
     </row>
     <row r="5" spans="1:19">
@@ -10682,55 +10682,55 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>2.99531965632286</v>
+        <v>2.995319656322735</v>
       </c>
       <c r="D5">
-        <v>2.99531965632286</v>
+        <v>2.995319656322735</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>34.58697219773961</v>
+        <v>34.58697219773817</v>
       </c>
       <c r="G5">
-        <v>34.58697219773961</v>
+        <v>34.58697219773817</v>
       </c>
       <c r="H5">
-        <v>7.459610837159097</v>
+        <v>2.5525746794594</v>
       </c>
       <c r="I5">
-        <v>3.814808185419791</v>
+        <v>-1165.614387547064</v>
       </c>
       <c r="J5">
-        <v>1.147731927164048</v>
+        <v>1.147731927224092</v>
       </c>
       <c r="K5">
-        <v>3.488438701404312</v>
+        <v>3.488438701520351</v>
       </c>
       <c r="L5">
-        <v>1.147731927170906</v>
+        <v>1.147731927162328</v>
       </c>
       <c r="M5">
-        <v>3.488438701416174</v>
+        <v>3.488438701431013</v>
       </c>
       <c r="N5">
-        <v>0.9526279648043282</v>
+        <v>0.9526279648043371</v>
       </c>
       <c r="O5">
         <v>0</v>
       </c>
       <c r="P5">
-        <v>0.9526279648061707</v>
+        <v>0.9526279648062062</v>
       </c>
       <c r="Q5">
-        <v>-1.466019184245157E-11</v>
+        <v>-1.481073493371588E-11</v>
       </c>
       <c r="R5">
         <v>0</v>
       </c>
       <c r="S5">
-        <v>-179.9999999999788</v>
+        <v>-179.9999999999789</v>
       </c>
     </row>
     <row r="6" spans="1:19">
@@ -10774,22 +10774,22 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>1.004840030206317</v>
+        <v>1.004840030206326</v>
       </c>
       <c r="O6">
-        <v>0.235566231259815</v>
+        <v>0.2355662312597938</v>
       </c>
       <c r="P6">
-        <v>0.9127115190507489</v>
+        <v>0.9127115190507828</v>
       </c>
       <c r="Q6">
-        <v>6.185827765114887</v>
+        <v>6.185827765114356</v>
       </c>
       <c r="R6">
-        <v>-113.1797984912247</v>
+        <v>-113.1797984912203</v>
       </c>
       <c r="S6">
-        <v>173.1869568167123</v>
+        <v>173.1869568167128</v>
       </c>
     </row>
   </sheetData>
